--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Holidays 2019" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,11 +49,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,317 +418,1302 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="A4:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="12.7109375" customWidth="1" min="1" max="1"/>
+    <col width="14.5703125" customWidth="1" min="2" max="2"/>
+    <col width="20.5703125" customWidth="1" min="3" max="3"/>
+    <col width="12.28515625" customWidth="1" min="5" max="5"/>
+    <col width="19.85546875" customWidth="1" min="6" max="6"/>
+    <col width="22.140625" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-158M</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ср Гр выт</t>
+          <t>сер груз камневыт</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-158M</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>груз камневыт трп</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>BEL-158M</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Тр Гр выт</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>259</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-278</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>BEL-278</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Сер Груз</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>259</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-278</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>груз трп</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>BEL-278</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Трп Груз</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>259</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-268</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>BEL-268</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Сер Груз</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>259</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-268</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>груз трп</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>BEL-268</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Трп Груз</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>259</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-398</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>BEL-398</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Сер Груз</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>259</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>BEL-326</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Сер Груз</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>259</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>груз трп</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>BEL-326</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Трп Груз</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>259</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-498</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>156L сер груз</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>BEL-498</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Сер Гр 156L</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>259</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>BEL-518</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>BEL-518</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Сер Груз</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>259</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16 сер груз</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>ИД-304М</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Сер Груз 16</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>259</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18 сер груз</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>ИД-304М</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Сер Груз 18</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>259</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16 груз трп</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>ИД-304М</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Трп Груз 16</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>259</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18 груз трп</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>ИД-304М</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Трп Груз 18</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>259</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18 сер груз</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>БИ-368М</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Сер Груз 18</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>259</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18 сер груз</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>БИ-368М</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Сер Груз 18</t>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>259</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18 груз трп</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>БИ-368М</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Трп Груз 18</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>259</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>11</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>11</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>11</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>11</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>11</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>11</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>11</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +441,36 @@
           <t>сер груз камневыт</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,6 +488,32 @@
           <t>груз камневыт трп</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -472,6 +531,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -489,6 +574,32 @@
           <t>груз трп</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,6 +617,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -523,6 +660,32 @@
           <t>груз трп</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,6 +703,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -557,6 +746,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -574,6 +789,32 @@
           <t>груз трп</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,6 +832,32 @@
           <t>156L сер груз</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -608,6 +875,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -625,6 +918,32 @@
           <t>16 сер груз</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -642,6 +961,32 @@
           <t>18 сер груз</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -659,6 +1004,32 @@
           <t>16 груз трп</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -676,6 +1047,32 @@
           <t>18 груз трп</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -693,6 +1090,32 @@
           <t>18 сер груз</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +1133,32 @@
           <t>18 сер груз</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -725,6 +1174,1068 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>18 груз трп</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1808,10 +1808,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1976,10 +1976,10 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2088,10 +2088,10 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2228,12 +2228,1020 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>44737</v>
+        <v>44767</v>
       </c>
       <c r="J55" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>груз, камневыт, трп</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>БНХ Польска</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,6 +1226,1518 @@
         <v>44616</v>
       </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>груз, сер, камневыт</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>трп, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>16, трп, груз</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>18, трп, груз</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>18, трп, груз</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>груз, сер, камневыт</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>трп, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>16, трп, груз</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18, трп, груз</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18, трп, груз</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>груз, сер, камневыт</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>трп, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>трп, груз</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>16, трп, груз</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>18, трп, груз</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>18, трп, груз</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>БНХ Польска</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>груз сер камневыт</t>
+          <t>сер груз камневыт</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>трп груз камневыт</t>
+          <t>груз трп камневыт</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,14 +500,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>груз, сер, камневыт</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,14 +543,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>трп, груз, камневыт</t>
+          <t>груз, трп, камневыт</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>трп груз</t>
+          <t>груз трп</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -586,14 +586,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,14 +629,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>трп груз</t>
+          <t>груз трп</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,14 +758,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>трп груз</t>
+          <t>груз трп</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -801,14 +801,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>156L груз сер</t>
+          <t>156L сер груз</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -844,14 +844,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -887,14 +887,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 груз сер</t>
+          <t>16 сер груз</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -930,14 +930,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16 трп груз</t>
+          <t>16 груз трп</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18 трп груз</t>
+          <t>18 груз трп</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16, трп, груз</t>
+          <t>16, груз, трп</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1102,14 +1102,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18 трп груз</t>
+          <t>18 груз трп</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44616</v>
+        <v>44578</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1244,14 +1244,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>груз, сер, камневыт</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1272,14 +1272,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>трп, груз, камневыт</t>
+          <t>груз, трп, камневыт</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1300,14 +1300,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1328,14 +1328,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1356,14 +1356,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1384,14 +1384,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1412,14 +1412,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1440,14 +1440,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1468,14 +1468,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1496,14 +1496,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1524,14 +1524,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1552,14 +1552,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1580,14 +1580,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16, трп, груз</t>
+          <t>16, груз, трп</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1664,14 +1664,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1720,14 +1720,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1748,14 +1748,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>груз, сер, камневыт</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>трп, груз, камневыт</t>
+          <t>груз, трп, камневыт</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1804,14 +1804,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1860,14 +1860,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1888,14 +1888,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1916,14 +1916,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2028,14 +2028,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2056,14 +2056,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2112,14 +2112,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16, трп, груз</t>
+          <t>16, груз, трп</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2140,14 +2140,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2168,14 +2168,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2224,14 +2224,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>44585</v>
+        <v>44637</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2252,18 +2252,18 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>груз, сер, камневыт</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2280,18 +2280,18 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>трп, груз, камневыт</t>
+          <t>груз, трп, камневыт</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2308,18 +2308,18 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2336,18 +2336,18 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2364,18 +2364,18 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2392,18 +2392,18 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2420,18 +2420,18 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2448,18 +2448,18 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2476,18 +2476,18 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2504,18 +2504,18 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2532,18 +2532,18 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2560,18 +2560,18 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2588,18 +2588,18 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2616,18 +2616,18 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16, трп, груз</t>
+          <t>16, груз, трп</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2644,18 +2644,18 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2672,18 +2672,18 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2700,18 +2700,18 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>44673</v>
+        <v>44637</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>
@@ -2728,18 +2728,1530 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H73" t="n">
+        <v>18</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44637</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>18</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>18</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>18</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>18</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>18</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>18</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>18</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>18</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>18</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>18</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>18</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>18</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>18</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>18</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>18</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>18</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>18</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>44573</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
         <v>8</v>
       </c>
-      <c r="I73" s="1" t="n">
-        <v>44673</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>БНХ Польска</t>
+      <c r="I92" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>сер, груз, камневыт</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>12</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>12</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>12</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>12</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>12</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>12</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>12</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>12</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>12</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>156L, сер, груз</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>12</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>12</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>16, сер, груз</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>12</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>12</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>12</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>12</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>12</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>18, сер, груз</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>12</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>12</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +438,37 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>сер груз камневыт</t>
+          <t>груз камневыт сер</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
         </is>
       </c>
     </row>
@@ -455,6 +488,32 @@
           <t>груз трп камневыт</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,7 +528,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -489,6 +574,32 @@
           <t>груз трп</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -503,7 +614,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -523,6 +660,32 @@
           <t>груз трп</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -537,7 +700,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -554,7 +743,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -574,6 +789,32 @@
           <t>груз трп</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -588,7 +829,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>156L сер груз</t>
+          <t>156L груз сер</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -605,7 +872,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -622,7 +915,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 сер груз</t>
+          <t>16 груз сер</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -639,7 +958,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>18 груз сер</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -659,6 +1004,32 @@
           <t>16 груз трп</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -676,6 +1047,32 @@
           <t>18 груз трп</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -690,7 +1087,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>18 груз сер</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -707,7 +1130,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>18 груз сер</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -725,6 +1174,635 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>18 груз трп</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>20</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>20</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,6 +1803,2666 @@
       <c r="J39" t="inlineStr">
         <is>
           <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>78</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>78</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>78</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>78</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>78</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>78</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>78</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>78</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>78</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>78</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>78</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>78</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>78</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>78</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>78</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>78</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>78</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>78</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>78</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>БНХ Польска</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>БНХ Укр</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>груз, камневыт, сер</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>груз, трп, камневыт</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>44824</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	БНХ РОС</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44689</v>
+        <v>44824</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1347,14 +1347,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1375,14 +1375,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1403,14 +1403,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1431,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1459,14 +1459,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1487,14 +1487,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1515,14 +1515,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1543,14 +1543,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1571,14 +1571,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1599,14 +1599,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1627,14 +1627,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1655,14 +1655,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1683,14 +1683,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1711,14 +1711,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1739,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1767,14 +1767,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1795,14 +1795,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>БНХ Укр</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>44628</v>
+        <v>44824</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>44824</v>
+        <v>44769</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -2915,10 +2915,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -2999,10 +2999,10 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3027,10 +3027,10 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3391,1078 +3391,14 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>44800</v>
+        <v>44696</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>БНХ Польска</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>груз, камневыт, сер</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>груз, трп, камневыт</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>3</v>
-      </c>
-      <c r="I105" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>156L, груз, сер</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>16, груз, сер</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>3</v>
-      </c>
-      <c r="I113" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>3</v>
-      </c>
-      <c r="I114" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>3</v>
-      </c>
-      <c r="I115" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>БНХ Укр</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>груз, камневыт, сер</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>4</v>
-      </c>
-      <c r="I116" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>груз, трп, камневыт</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>4</v>
-      </c>
-      <c r="I117" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>4</v>
-      </c>
-      <c r="I118" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>4</v>
-      </c>
-      <c r="I119" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>4</v>
-      </c>
-      <c r="I120" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>4</v>
-      </c>
-      <c r="I121" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>4</v>
-      </c>
-      <c r="I122" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>4</v>
-      </c>
-      <c r="I123" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>4</v>
-      </c>
-      <c r="I124" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>156L, груз, сер</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I125" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>4</v>
-      </c>
-      <c r="I126" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>16, груз, сер</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>4</v>
-      </c>
-      <c r="I127" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>4</v>
-      </c>
-      <c r="I128" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>4</v>
-      </c>
-      <c r="I129" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>4</v>
-      </c>
-      <c r="I130" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>4</v>
-      </c>
-      <c r="I131" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>4</v>
-      </c>
-      <c r="I132" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>4</v>
-      </c>
-      <c r="I133" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>4</v>
-      </c>
-      <c r="I134" s="1" t="n">
-        <v>44824</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	БНХ РОС</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>груз камневыт сер</t>
+          <t>камневыт груз сер</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>груз трп камневыт</t>
+          <t>камневыт груз трп</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,18 +500,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>груз, камневыт, сер</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -543,18 +543,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>груз, трп, камневыт</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -676,14 +676,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -762,14 +762,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -848,14 +848,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -891,14 +891,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -934,14 +934,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -977,14 +977,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1020,14 +1020,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1063,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1106,14 +1106,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1149,14 +1149,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1192,14 +1192,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1235,14 +1235,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1263,14 +1263,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1287,14 +1287,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>груз, камневыт, сер</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1315,14 +1315,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>груз, трп, камневыт</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44824</v>
+        <v>44806</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1819,18 +1819,18 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>груз, камневыт, сер</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1847,18 +1847,18 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>груз, трп, камневыт</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1879,14 +1879,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1935,14 +1935,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1963,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1991,14 +1991,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2019,14 +2019,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2047,14 +2047,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2075,14 +2075,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2103,14 +2103,14 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2131,14 +2131,14 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2215,14 +2215,14 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2243,14 +2243,14 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2271,14 +2271,14 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2299,14 +2299,14 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2327,14 +2327,14 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -2351,18 +2351,18 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>груз, камневыт, сер</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>6</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2379,18 +2379,18 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>груз, трп, камневыт</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>6</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2414,11 +2414,11 @@
         <v>6</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2442,11 +2442,11 @@
         <v>6</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2470,11 +2470,11 @@
         <v>6</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2498,11 +2498,11 @@
         <v>6</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2526,11 +2526,11 @@
         <v>6</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2554,11 +2554,11 @@
         <v>6</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2582,11 +2582,11 @@
         <v>6</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2610,11 +2610,11 @@
         <v>6</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2638,11 +2638,11 @@
         <v>6</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2666,11 +2666,11 @@
         <v>6</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2694,11 +2694,11 @@
         <v>6</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2722,11 +2722,11 @@
         <v>6</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2750,11 +2750,11 @@
         <v>6</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2778,11 +2778,11 @@
         <v>6</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2806,11 +2806,11 @@
         <v>6</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2834,11 +2834,11 @@
         <v>6</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2862,11 +2862,11 @@
         <v>6</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>44769</v>
+        <v>44807</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -2883,18 +2883,18 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>груз, камневыт, сер</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2911,18 +2911,18 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>груз, трп, камневыт</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2943,14 +2943,14 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2971,14 +2971,14 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2999,14 +2999,14 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3027,14 +3027,14 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3055,14 +3055,14 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3083,14 +3083,14 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3111,14 +3111,14 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3139,14 +3139,14 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3167,14 +3167,14 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3195,14 +3195,14 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3251,14 +3251,14 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3279,14 +3279,14 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3307,14 +3307,14 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3335,14 +3335,14 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3363,14 +3363,14 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -3391,14 +3391,546 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>44696</v>
+        <v>44807</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>БНХ Польска</t>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>камневыт, груз, сер</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>камневыт, груз, трп</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3929,6 +3929,538 @@
         <v>44745</v>
       </c>
       <c r="J115" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>камневыт, груз, сер</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>201</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>камневыт, груз, трп</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>201</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>201</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>201</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>201</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>201</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>201</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>201</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>201</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>201</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>201</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>201</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>201</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>201</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>201</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>201</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>201</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>201</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>201</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>БНХ ПОЛЬСКА</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4461,6 +4461,538 @@
         <v>44701</v>
       </c>
       <c r="J134" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>камневыт, груз, сер</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>113</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>камневыт, груз, трп</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>113</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>113</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>113</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>113</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>113</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>113</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>113</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>113</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>156L, груз, сер</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>113</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>113</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>16, груз, сер</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>113</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>113</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>113</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>113</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>113</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>113</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>113</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>БНХ ПОЛЬСКА</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>113</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>БНХ ПОЛЬСКА</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>камневыт груз сер</t>
+          <t>сер груз камневыт</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>камневыт груз трп</t>
+          <t>груз камневыт трп</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,14 +500,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,14 +543,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>груз, камневыт, трп</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -586,14 +586,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -672,14 +672,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,14 +758,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -801,14 +801,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>156L груз сер</t>
+          <t>156L сер груз</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -887,14 +887,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 груз сер</t>
+          <t>16 сер груз</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -930,14 +930,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1188,14 +1188,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1259,14 +1259,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1287,18 +1287,18 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1315,18 +1315,18 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>груз, камневыт, трп</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1343,18 +1343,18 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1375,14 +1375,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1399,18 +1399,18 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1431,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1455,18 +1455,18 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1483,18 +1483,18 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1515,14 +1515,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1539,18 +1539,18 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1567,18 +1567,18 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1595,18 +1595,18 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1623,18 +1623,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1655,14 +1655,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1683,14 +1683,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1707,18 +1707,18 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1735,18 +1735,18 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1767,14 +1767,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1791,18 +1791,18 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1819,18 +1819,18 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1847,18 +1847,18 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>груз, камневыт, трп</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1875,18 +1875,18 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1931,18 +1931,18 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1963,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -1987,18 +1987,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2015,18 +2015,18 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2047,14 +2047,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2071,18 +2071,18 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2099,18 +2099,18 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2127,18 +2127,18 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2155,18 +2155,18 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2215,14 +2215,14 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2239,18 +2239,18 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2267,18 +2267,18 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2299,14 +2299,14 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2323,18 +2323,18 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>44807</v>
+        <v>44822</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>
@@ -2351,14 +2351,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>сер, груз, камневыт</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2379,14 +2379,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>груз, камневыт, трп</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2407,14 +2407,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2463,14 +2463,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2519,14 +2519,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2547,14 +2547,14 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2603,14 +2603,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -2631,14 +2631,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2659,14 +2659,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -2771,14 +2771,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -2799,14 +2799,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -2855,2146 +2855,18 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>44807</v>
+        <v>44826</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>камневыт, груз, сер</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>8</v>
-      </c>
-      <c r="I78" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>камневыт, груз, трп</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
-      </c>
-      <c r="I79" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>8</v>
-      </c>
-      <c r="I80" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
-      </c>
-      <c r="I81" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>8</v>
-      </c>
-      <c r="I82" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
-      </c>
-      <c r="I83" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>8</v>
-      </c>
-      <c r="I84" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>8</v>
-      </c>
-      <c r="I85" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>8</v>
-      </c>
-      <c r="I86" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>156L, груз, сер</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>8</v>
-      </c>
-      <c r="I87" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>8</v>
-      </c>
-      <c r="I88" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>16, груз, сер</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>8</v>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>8</v>
-      </c>
-      <c r="I90" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>8</v>
-      </c>
-      <c r="I91" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>8</v>
-      </c>
-      <c r="I92" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>8</v>
-      </c>
-      <c r="I93" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>8</v>
-      </c>
-      <c r="I94" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>8</v>
-      </c>
-      <c r="I95" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>8</v>
-      </c>
-      <c r="I96" s="1" t="n">
-        <v>44807</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>камневыт, груз, сер</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>8</v>
-      </c>
-      <c r="I97" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>камневыт, груз, трп</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>8</v>
-      </c>
-      <c r="I98" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>8</v>
-      </c>
-      <c r="I99" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>8</v>
-      </c>
-      <c r="I101" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>8</v>
-      </c>
-      <c r="I102" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>8</v>
-      </c>
-      <c r="I103" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>8</v>
-      </c>
-      <c r="I104" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I105" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>156L, груз, сер</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>8</v>
-      </c>
-      <c r="I106" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>8</v>
-      </c>
-      <c r="I107" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>16, груз, сер</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>8</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>8</v>
-      </c>
-      <c r="I109" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>8</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>8</v>
-      </c>
-      <c r="I111" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>8</v>
-      </c>
-      <c r="I112" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>8</v>
-      </c>
-      <c r="I113" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>8</v>
-      </c>
-      <c r="I114" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>8</v>
-      </c>
-      <c r="I115" s="1" t="n">
-        <v>44745</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>камневыт, груз, сер</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>201</v>
-      </c>
-      <c r="I116" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>камневыт, груз, трп</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>201</v>
-      </c>
-      <c r="I117" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>201</v>
-      </c>
-      <c r="I118" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>201</v>
-      </c>
-      <c r="I119" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>201</v>
-      </c>
-      <c r="I120" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>201</v>
-      </c>
-      <c r="I121" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>201</v>
-      </c>
-      <c r="I122" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>201</v>
-      </c>
-      <c r="I123" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>201</v>
-      </c>
-      <c r="I124" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>156L, груз, сер</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>201</v>
-      </c>
-      <c r="I125" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>201</v>
-      </c>
-      <c r="I126" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>16, груз, сер</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>201</v>
-      </c>
-      <c r="I127" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>201</v>
-      </c>
-      <c r="I128" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>201</v>
-      </c>
-      <c r="I129" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>201</v>
-      </c>
-      <c r="I130" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>201</v>
-      </c>
-      <c r="I131" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>201</v>
-      </c>
-      <c r="I132" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>201</v>
-      </c>
-      <c r="I133" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>201</v>
-      </c>
-      <c r="I134" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>камневыт, груз, сер</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>113</v>
-      </c>
-      <c r="I135" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>камневыт, груз, трп</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>113</v>
-      </c>
-      <c r="I136" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>113</v>
-      </c>
-      <c r="I137" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>113</v>
-      </c>
-      <c r="I138" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>113</v>
-      </c>
-      <c r="I139" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>113</v>
-      </c>
-      <c r="I140" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>113</v>
-      </c>
-      <c r="I141" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>113</v>
-      </c>
-      <c r="I142" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>113</v>
-      </c>
-      <c r="I143" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>156L, груз, сер</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>113</v>
-      </c>
-      <c r="I144" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>113</v>
-      </c>
-      <c r="I145" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>16, груз, сер</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>113</v>
-      </c>
-      <c r="I146" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>113</v>
-      </c>
-      <c r="I147" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>113</v>
-      </c>
-      <c r="I148" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>113</v>
-      </c>
-      <c r="I149" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>113</v>
-      </c>
-      <c r="I150" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>113</v>
-      </c>
-      <c r="I151" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>113</v>
-      </c>
-      <c r="I152" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>113</v>
-      </c>
-      <c r="I153" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>сер груз камневыт</t>
+          <t>камневыт груз сер</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>груз камневыт трп</t>
+          <t>камневыт груз трп</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,18 +500,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>сер, груз, камневыт</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,18 +543,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>груз, камневыт, трп</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -586,18 +586,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -672,18 +672,18 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -719,14 +719,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,18 +758,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -801,18 +801,18 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>156L сер груз</t>
+          <t>156L груз сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -848,14 +848,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -887,18 +887,18 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>156L, сер, груз</t>
+          <t>156L, груз, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 сер груз</t>
+          <t>16 груз сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -930,18 +930,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>18 груз сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -973,18 +973,18 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16, сер, груз</t>
+          <t>16, груз, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1016,18 +1016,18 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1063,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>18 груз сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1106,14 +1106,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>18 груз сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1145,18 +1145,18 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1188,18 +1188,18 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1235,14 +1235,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1259,18 +1259,18 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1282,23 +1282,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, груз, камневыт</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44819</v>
+        <v>44826</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1315,18 +1315,18 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>груз, камневыт, трп</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1338,23 +1338,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>BEL-158M</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1371,18 +1371,18 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1394,23 +1394,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>BEL-278</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1427,18 +1427,18 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1450,23 +1450,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>BEL-268</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1478,23 +1478,23 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>BEL-398</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1511,18 +1511,18 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1534,23 +1534,23 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>156L, сер, груз</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1562,51 +1562,51 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BEL-518</t>
+          <t>BEL-498</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>156L, груз, сер</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>BEL-518</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16, сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1623,18 +1623,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>16, груз, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1651,18 +1651,18 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16, груз, трп</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1679,18 +1679,18 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>16, груз, трп</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1702,23 +1702,23 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1735,18 +1735,18 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
@@ -1763,1108 +1763,72 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44819</v>
+        <v>44849</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>БНХ ПОЛЬСКА</t>
+          <t>БНХ РОС</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-337</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>сер, груз, камневыт</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44822</v>
+        <v>44849</v>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>груз, камневыт, трп</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>156L, сер, груз</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>16, сер, груз</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>9</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>44822</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>БНХ ПОЛЬСКА</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>сер, груз, камневыт</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>78</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>груз, камневыт, трп</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>78</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>78</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>78</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>78</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>78</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>BEL-398</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>78</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>78</v>
-      </c>
-      <c r="I66" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>78</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>BEL-498</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>156L, сер, груз</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>78</v>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>сер, груз</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>78</v>
-      </c>
-      <c r="I69" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>16, сер, груз</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>78</v>
-      </c>
-      <c r="I70" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>78</v>
-      </c>
-      <c r="I71" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>78</v>
-      </c>
-      <c r="I72" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>78</v>
-      </c>
-      <c r="I73" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>78</v>
-      </c>
-      <c r="I74" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>78</v>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>78</v>
-      </c>
-      <c r="I76" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>78</v>
-      </c>
-      <c r="I77" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="J77" t="inlineStr">
         <is>
           <t>БНХ РОС</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,11 +507,11 @@
         <v>259</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -547,14 +547,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -593,11 +593,11 @@
         <v>281</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
         <v>287</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>283</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -722,11 +722,11 @@
         <v>287</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -765,11 +765,11 @@
         <v>265</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -808,11 +808,11 @@
         <v>269</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -848,14 +848,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -894,11 +894,11 @@
         <v>247</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -937,11 +937,11 @@
         <v>255</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -977,14 +977,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>279</v>
+        <v>1555</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1023,11 +1023,11 @@
         <v>285</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -1066,11 +1066,11 @@
         <v>290</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -1109,11 +1109,11 @@
         <v>296</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -1149,14 +1149,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>283</v>
+        <v>4565</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1192,14 +1192,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>283</v>
+        <v>4565</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1231,102 +1231,102 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44826</v>
+        <v>44814</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-337</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44849</v>
+        <v>44814</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -1343,14 +1343,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>камневыт, груз, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1366,19 +1366,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>BEL-158M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>камневыт, груз, трп</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1422,19 +1422,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>BEL-278</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1455,14 +1455,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1478,19 +1478,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>BEL-268</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>BEL-398</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1515,14 +1515,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1539,18 +1539,18 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1562,19 +1562,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>груз, трп</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1590,47 +1590,47 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BEL-518</t>
+          <t>BEL-498</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>156L, груз, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>BEL-518</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1651,18 +1651,18 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>16, груз, сер</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>285</v>
+        <v>1555</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1679,14 +1679,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16, груз, трп</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1707,14 +1707,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>16, груз, трп</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1730,19 +1730,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, груз, трп</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1767,14 +1767,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>283</v>
+        <v>4565</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1791,46 +1791,494 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>291</v>
+        <v>4565</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44849</v>
+        <v>44752</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>283</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>283</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>291</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
           <t>195/65R15</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>BEL-337</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>б/к, сер, легк</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>291</v>
       </c>
-      <c r="I40" s="1" t="n">
-        <v>44849</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>БНХ РОС</t>
+      <c r="I43" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>камневыт, груз, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>259</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>камневыт, груз, трп</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>285</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>281</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>287</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>283</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>287</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>груз, трп</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>27</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>BEL-518</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>255</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18, груз, сер</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>285</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>HHHDFD</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>16, груз, трп</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>290</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>БНХ УКР</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>296</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>БНХ УКР</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18, груз, трп</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>291</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>БНХ УКР</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>291</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>камневыт груз сер</t>
+          <t>камневыт сер груз</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>камневыт груз трп</t>
+          <t>камневыт трп груз</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,14 +500,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>камневыт, сер, груз</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>259</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,14 +543,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>камневыт, трп, груз</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>285</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>груз трп</t>
+          <t>трп груз</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -586,14 +586,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>281</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,14 +629,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>трп, груз</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>287</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>груз трп</t>
+          <t>трп груз</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -672,18 +672,18 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>283</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -715,14 +715,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>трп, груз</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>287</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,14 +758,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>265</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>груз трп</t>
+          <t>трп груз</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -801,14 +801,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>269</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>156L груз сер</t>
+          <t>156L сер груз</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -844,14 +844,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>трп, груз</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>27</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер груз</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -887,14 +887,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>247</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 груз сер</t>
+          <t>16 сер груз</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -930,14 +930,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>255</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>1555</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16 груз трп</t>
+          <t>16 трп груз</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>285</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18 груз трп</t>
+          <t>18 трп груз</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1059,18 +1059,18 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16, груз, трп</t>
+          <t>16, трп, груз</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>290</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1102,18 +1102,18 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>18, трп, груз</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>296</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18 груз сер</t>
+          <t>18 сер груз</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>4565</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18 груз трп</t>
+          <t>18 трп груз</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>4565</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1231,14 +1231,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>283</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1259,14 +1259,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>283</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1287,18 +1287,18 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>18, трп, груз</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>291</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1315,18 +1315,18 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>291</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44814</v>
+        <v>44752</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>БНХ УКР</t>
         </is>
       </c>
     </row>
@@ -1343,18 +1343,18 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>камневыт, сер, груз</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1366,23 +1366,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-278</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>камневыт, груз, трп</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1394,23 +1394,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>BEL-268</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>281</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1422,23 +1422,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>BEL-398</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1450,23 +1450,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -1478,47 +1478,47 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>BEL-498</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1529,24 +1529,24 @@
     <row r="30">
       <c r="E30" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>269</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1557,52 +1557,52 @@
     <row r="31">
       <c r="E31" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>груз, трп</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>156L, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1613,52 +1613,52 @@
     <row r="33">
       <c r="E33" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BEL-518</t>
+          <t>BEL-337</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44752</v>
+        <v>44863</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>BEL-158M</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16, груз, сер</t>
+          <t>камневыт, сер, груз</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1555</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1669,108 +1669,108 @@
     <row r="35">
       <c r="E35" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>BEL-278</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>BEL-268</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16, груз, трп</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>290</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>BEL-398</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>БНХ РОС</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>BEL-326</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4565</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1781,24 +1781,24 @@
     <row r="39">
       <c r="E39" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>315/80R22.5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>BEL-498</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>156L, сер, груз</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4565</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1814,19 +1814,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>16, сер, груз</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>ИД-304М</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18, груз, сер</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1875,410 +1875,74 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18, груз, трп</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>БИ-368М</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>18, сер, груз</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-337</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>камневыт, груз, сер</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44752</v>
+        <v>44864</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>BEL-158M</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>камневыт, груз, трп</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>285</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>281</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>BEL-278</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>287</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>283</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>BEL-268</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>287</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>BEL-326</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>груз, трп</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>BEL-518</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>255</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>18, груз, сер</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>285</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>HHHDFD</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>16, груз, трп</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>290</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>БНХ УКР</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ИД-304М</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>296</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>БНХ УКР</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>18, груз, трп</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>291</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>БНХ УКР</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>б/к, сер, легк</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>291</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>БНХ УКР</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Holidays 2019" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Holidays 2019" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,17 +428,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>камневыт сер груз</t>
+          <t>42 груз сер</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -475,36 +475,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>камневыт трп груз</t>
+          <t>груз сер LS-2 Type</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>205/60R16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-277</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>камневыт, сер, груз</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>44752</v>
@@ -518,254 +518,254 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер Type H</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>камневыт, трп, груз</t>
+          <t>42, груз, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>трп груз</t>
+          <t>груз сер Type C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>281</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>210B сер LS-2 Type</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, сер, Type, H</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>трп груз</t>
+          <t>210B сер Type H</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер, Type, C</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>210B сер Type C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>210B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>груз сер LS-2 Type</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>210B, сер, Type, H</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -776,39 +776,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>трп груз</t>
+          <t>груз сер Type H</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>210B, сер, Type, C</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>269</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -819,82 +819,82 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>156L сер груз</t>
+          <t>груз сер Type C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>трп, груз</t>
+          <t>груз, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BEL-518</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>202B сер LS-2 Type</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>156L, сер, груз</t>
+          <t>груз, сер, Type, H</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -905,82 +905,82 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16 сер груз</t>
+          <t>202B сер Type H</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BEL-518</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер, Type, C</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>202B сер Type C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16, сер, груз</t>
+          <t>202B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1555</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -991,168 +991,168 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16 трп груз</t>
+          <t>202B сер LS-2 Type</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>202B, сер, Type, H</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18 трп груз</t>
+          <t>202B сер Type H</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16, трп, груз</t>
+          <t>202B, сер, Type, C</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>290</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>202B сер Type C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18, трп, груз</t>
+          <t>202B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>БНХ УКР</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18 сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>202B, сер, Type, H</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4565</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1163,39 +1163,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18 трп груз</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>202B, сер, Type, C</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4565</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44752</v>
+        <v>44893</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1206,151 +1206,211 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>12.00R20</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>283</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>груз сер</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>173G б/к груз сер</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>173G груз сер</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>12.00R20</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>18, сер, груз</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>283</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>БИ-368М</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>18, трп, груз</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>291</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>БНХ УКР</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>BEL-337</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>легк, б/к, сер</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>291</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>44752</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>БНХ УКР</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>315/80R22.5</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>BEL-288</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>камневыт, сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1359,26 +1419,41 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>173G груз сер</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>173G, б/к, груз, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1387,26 +1462,41 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>173G груз сер</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>173G, груз, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1415,26 +1505,41 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>173G груз сер</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>173G, груз, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1443,26 +1548,41 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>173G груз сер</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>173G, груз, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1471,26 +1591,41 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>173G сер</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>156L, сер, груз</t>
+          <t>173G, груз, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1499,26 +1634,41 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>168J груз сер</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16, сер, груз</t>
+          <t>173G, груз, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1527,26 +1677,41 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>б/к груз сер</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>173G, сер</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1555,26 +1720,41 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>395/85R20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>BEL-405</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>168J, груз, сер</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1583,26 +1763,41 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>445/65R22.5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>Бел-145</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1611,26 +1806,41 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>355/65-15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>Бел-230</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1639,26 +1849,41 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>355/65-15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BEL-158M</t>
+          <t>Бел-230М</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>камневыт, сер, груз</t>
+          <t>сер</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44864</v>
+        <v>44893</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1667,26 +1892,41 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BEL-278</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44864</v>
+        <v>44893</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1695,26 +1935,41 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BEL-268</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44864</v>
+        <v>44893</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1725,24 +1980,24 @@
     <row r="37">
       <c r="E37" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BEL-398</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44864</v>
+        <v>44893</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1753,24 +2008,24 @@
     <row r="38">
       <c r="E38" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>205/60R16</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BEL-326</t>
+          <t>BEL-277</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>44864</v>
+        <v>44893</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1781,24 +2036,24 @@
     <row r="39">
       <c r="E39" t="inlineStr">
         <is>
-          <t>315/80R22.5</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BEL-498</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>156L, сер, груз</t>
+          <t>42, груз, сер</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>44864</v>
+        <v>44894</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1809,24 +2064,24 @@
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16, сер, груз</t>
+          <t>груз, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>44864</v>
+        <v>44894</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1837,24 +2092,24 @@
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ИД-304М</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>груз, сер, Type, H</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>44864</v>
+        <v>44894</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1865,24 +2120,24 @@
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>груз, сер, Type, C</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>44864</v>
+        <v>44894</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1893,24 +2148,24 @@
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>БИ-368М</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18, сер, груз</t>
+          <t>210B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>44864</v>
+        <v>44894</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1921,26 +2176,2882 @@
     <row r="44">
       <c r="E44" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>210B, сер, Type, H</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44864</v>
+        <v>44894</v>
       </c>
       <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>173G, б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>173G, сер</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>168J, груз, сер</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>44894</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>173G, б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>173G, сер</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>168J, груз, сер</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>173G, б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>173G, сер</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>168J, груз, сер</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5052,6 +5052,2022 @@
         <v>44900</v>
       </c>
       <c r="J146" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>173G, б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>173G, сер</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>168J, груз, сер</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+      <c r="I197" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I198" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+      <c r="I203" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>173G, б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+      <c r="I204" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+      <c r="I205" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I206" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+      <c r="I207" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+      <c r="I208" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+      <c r="I209" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>173G, сер</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+      <c r="I210" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>168J, груз, сер</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I211" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I213" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+      <c r="I217" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I218" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7068,6 +7068,1658 @@
         <v>44906</v>
       </c>
       <c r="J218" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I219" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I220" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I221" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+      <c r="I222" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+      <c r="I223" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+      <c r="I224" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I230" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I231" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I234" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I236" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+      <c r="I237" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I238" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I239" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>173G, б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>2</v>
+      </c>
+      <c r="I241" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+      <c r="I242" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>173G, груз, сер</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>173G, сер</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>168J, груз, сер</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>2</v>
+      </c>
+      <c r="I247" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+      <c r="I248" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>2</v>
+      </c>
+      <c r="I249" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>2</v>
+      </c>
+      <c r="I251" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>2</v>
+      </c>
+      <c r="I253" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+      <c r="I254" s="1" t="n">
+        <v>44908</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>2</v>
+      </c>
+      <c r="I255" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>2</v>
+      </c>
+      <c r="I256" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>2</v>
+      </c>
+      <c r="I257" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>2</v>
+      </c>
+      <c r="I259" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>2</v>
+      </c>
+      <c r="I260" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>2</v>
+      </c>
+      <c r="I261" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>2</v>
+      </c>
+      <c r="I262" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>2</v>
+      </c>
+      <c r="I263" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>2</v>
+      </c>
+      <c r="I264" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
+      <c r="I265" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>2</v>
+      </c>
+      <c r="I266" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+      <c r="I267" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+      <c r="I268" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>2</v>
+      </c>
+      <c r="I269" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
+      <c r="I270" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
+      <c r="I273" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>2</v>
+      </c>
+      <c r="I274" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>2</v>
+      </c>
+      <c r="I275" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>2</v>
+      </c>
+      <c r="I276" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>2</v>
+      </c>
+      <c r="I277" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="J277" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8720,6 +8720,650 @@
         <v>44909</v>
       </c>
       <c r="J277" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>42, груз, сер</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>2</v>
+      </c>
+      <c r="I278" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>2</v>
+      </c>
+      <c r="I279" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>2</v>
+      </c>
+      <c r="I280" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>2</v>
+      </c>
+      <c r="I281" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>2</v>
+      </c>
+      <c r="I282" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>2</v>
+      </c>
+      <c r="I283" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>2</v>
+      </c>
+      <c r="I284" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>210B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>2</v>
+      </c>
+      <c r="I285" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>2</v>
+      </c>
+      <c r="I286" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>210B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>2</v>
+      </c>
+      <c r="I287" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>груз, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>2</v>
+      </c>
+      <c r="I288" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>2</v>
+      </c>
+      <c r="I289" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>груз, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>2</v>
+      </c>
+      <c r="I290" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>2</v>
+      </c>
+      <c r="I291" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>2</v>
+      </c>
+      <c r="I292" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>2</v>
+      </c>
+      <c r="I293" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>202B, сер, LS-2, Type</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>2</v>
+      </c>
+      <c r="I294" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, H</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>2</v>
+      </c>
+      <c r="I295" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>202B, сер, Type, C</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>2</v>
+      </c>
+      <c r="I296" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>2</v>
+      </c>
+      <c r="I297" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>2</v>
+      </c>
+      <c r="I298" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>2</v>
+      </c>
+      <c r="I299" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>груз, сер</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>2</v>
+      </c>
+      <c r="I300" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J300" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,33 +485,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Type сер LS-2 груз</t>
+          <t>сер груз Type LS-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35/65-33</t>
+          <t>205/60R16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t>BEL-277</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, сер, груз</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44930</v>
+        <v>44752</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>нет данных</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -528,33 +528,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Type H сер груз</t>
+          <t>сер H груз Type</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Type, сер, LS-2, груз</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>287</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44930</v>
+        <v>44752</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>нет данных</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -571,33 +571,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Type сер C груз</t>
+          <t>сер груз Type C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Type, H, сер, груз</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44930</v>
+        <v>44752</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>нет данных</t>
+          <t>HHHDFD</t>
         </is>
       </c>
     </row>
@@ -614,29 +614,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>210B Type сер LS-2</t>
+          <t>210B сер Type LS-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Type, сер, C, груз</t>
+          <t>42, сер, груз</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>210B Type H сер</t>
+          <t>210B сер H Type</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,19 +667,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>210B, Type, сер, LS-2</t>
+          <t>сер, груз, Type, LS-2</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>210B Type сер C</t>
+          <t>210B сер Type C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,19 +710,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>210B, Type, H, сер</t>
+          <t>сер, H, груз, Type</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Type сер LS-2 груз</t>
+          <t>сер груз Type LS-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,19 +753,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>210B, Type, сер, C</t>
+          <t>сер, груз, Type, C</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Type H сер груз</t>
+          <t>сер H груз Type</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,19 +796,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Type, сер, LS-2, груз</t>
+          <t>210B, сер, Type, LS-2</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Type сер C груз</t>
+          <t>сер груз Type C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,19 +839,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Type, H, сер, груз</t>
+          <t>210B, сер, H, Type</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>202B Type сер LS-2</t>
+          <t>202B сер Type LS-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,19 +882,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Type, сер, C, груз</t>
+          <t>210B, сер, Type, C</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -915,29 +915,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B Type H сер</t>
+          <t>202B сер H Type</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2</t>
+          <t>сер, груз, Type, LS-2</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -958,29 +958,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B Type сер C</t>
+          <t>202B сер Type C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>202B, Type, H, сер</t>
+          <t>сер, H, груз, Type</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1001,29 +1001,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>202B Type сер LS-2</t>
+          <t>202B сер Type LS-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C</t>
+          <t>сер, груз, Type, C</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>202B Type H сер</t>
+          <t>202B сер H Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2</t>
+          <t>202B, сер, Type, LS-2</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>202B Type сер C</t>
+          <t>202B сер Type C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,19 +1097,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, Type, H, сер</t>
+          <t>202B, сер, H, Type</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1140,19 +1140,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C</t>
+          <t>202B, сер, Type, C</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1173,29 +1173,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер б/к груз</t>
+          <t>сер груз б/к</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>202B, сер, Type, LS-2</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1221,24 +1221,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>202B, сер, H, Type</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1264,24 +1264,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>202B, сер, Type, C</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>173G сер б/к груз</t>
+          <t>173G сер груз б/к</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BEL-288</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1367,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1393,24 +1393,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>173G, сер, б/к, груз</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1436,24 +1436,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1479,24 +1479,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-288</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1532,14 +1532,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>173G, сер, груз, б/к</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1661,14 +1661,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>173G, сер</t>
+          <t>173G, сер, груз</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1689,29 +1689,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>сер б/к груз</t>
+          <t>сер груз б/к</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>395/85R20</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BEL-405</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>168J, сер, груз</t>
+          <t>173G, сер, груз</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1737,24 +1737,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>445/65R22.5</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Бел-145</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>173G, сер, груз</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1780,24 +1780,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>355/65-15</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Бел-230</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>сер</t>
+          <t>173G, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1818,29 +1818,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>355/65-15</t>
+          <t>395/85R20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Бел-230М</t>
+          <t>BEL-405</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>сер</t>
+          <t>168J, сер, груз</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1861,29 +1861,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>445/65R22.5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BEL-262</t>
+          <t>Бел-145</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1909,24 +1909,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>355/65-15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BEL-317</t>
+          <t>Бел-230</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1947,29 +1947,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>355/65-15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BEL-317S</t>
+          <t>Бел-230М</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>сер</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44930</v>
+        <v>44942</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1980,713 +1980,155 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44942</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44942</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44942</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
           <t>205/60R16</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>BEL-277</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>легк, сер, б/к</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>44930</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ФБел-283</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>35/65-33</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>42 сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Бел-122</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Type сер LS-2 груз</t>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44942</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Бел-122</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Type H сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Бел-122</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Type сер C груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Бел-202</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>210B Type сер LS-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Бел-202</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>210B Type H сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Бел-202</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>210B Type сер C</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Бел-212</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Type сер LS-2 груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Бел-212</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Type H сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Бел-212</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Type сер C груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Бел-200</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>202B Type сер LS-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Бел-200</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>202B Type H сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Бел-200</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>202B Type сер C</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Бел-210</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>202B Type сер LS-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Бел-210</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>202B Type H сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Бел-210</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>202B Type сер C</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>сер б/к груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>BEL-288</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>12.00R20</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>173G сер б/к груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>173G сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>173G сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>173G сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>173G сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>173G сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>173G сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>BEL-405</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>395/85R20</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>168J сер груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Бел-145</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>445/65R22.5</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>сер б/к груз</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Бел-230</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>355/65-15</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Бел-230М</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>355/65-15</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>BEL-262</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>легк сер б/к</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>BEL-317</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>легк сер б/к</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>BEL-317S</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>сер ошип</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>BEL-277</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>205/60R16</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>легк сер б/к</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Бел-103</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>легк сер б/к</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Бел-100</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>легк сер б/к</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Ф-35-1</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>11.2-20</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>168J сер 8 сх</t>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44942</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,17 +428,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>35/65-33</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>42 сер груз</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -475,113 +470,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>сер груз Type LS-2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>205/60R16</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BEL-277</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>42, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>281</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44752</v>
+        <v>44943</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер H груз Type</t>
+          <t>42 груз сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Бел-103</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>30, груз, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44752</v>
+        <v>44943</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер груз Type C</t>
+          <t>30 груз сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Бел-103</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -590,53 +580,53 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44752</v>
+        <v>44943</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>HHHDFD</t>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>210B сер Type LS-2</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35/65-33</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>42, сер, груз</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -647,39 +637,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>210B сер H Type</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, груз, Type, LS-2</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,24 +680,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>24.00R35</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>210B сер Type C</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Бел-122</t>
@@ -715,14 +705,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, H, груз, Type</t>
+          <t>груз, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -733,7 +723,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -743,7 +733,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер груз Type LS-2</t>
+          <t>груз сер LS-2 Type</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,14 +748,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, груз, Type, C</t>
+          <t>груз, сер, H, Type</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -776,7 +766,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -786,7 +776,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер H груз Type</t>
+          <t>груз сер H Type</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,19 +786,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>210B, сер, Type, LS-2</t>
+          <t>груз, сер, C, Type</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -819,7 +809,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -829,7 +819,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>сер груз Type C</t>
+          <t>груз сер C Type</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -844,14 +834,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, сер, H, Type</t>
+          <t>210B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -862,17 +852,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>202B сер Type LS-2</t>
+          <t>210B сер LS-2 Type</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -887,14 +877,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, сер, Type, C</t>
+          <t>210B, сер, H, Type</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -905,17 +895,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B сер H Type</t>
+          <t>210B сер H Type</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,19 +915,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>сер, груз, Type, LS-2</t>
+          <t>210B, сер, C, Type</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -948,17 +938,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B сер Type C</t>
+          <t>210B сер C Type</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -973,14 +963,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>сер, H, груз, Type</t>
+          <t>груз, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -991,17 +981,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>202B сер Type LS-2</t>
+          <t>груз сер LS-2 Type</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1016,14 +1006,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>сер, груз, Type, C</t>
+          <t>груз, сер, H, Type</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1034,39 +1024,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>202B сер H Type</t>
+          <t>груз сер H Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, сер, Type, LS-2</t>
+          <t>груз, сер, C, Type</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1077,24 +1067,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>груз сер C Type</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>202B сер Type C</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Бел-200</t>
@@ -1102,14 +1092,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, сер, H, Type</t>
+          <t>202B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1120,17 +1110,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>202B сер LS-2 Type</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1145,14 +1135,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, сер, Type, C</t>
+          <t>202B, сер, H, Type</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1163,17 +1153,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер груз б/к</t>
+          <t>202B сер H Type</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,19 +1173,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>202B, сер, Type, LS-2</t>
+          <t>202B, сер, C, Type</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1206,17 +1196,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>202B сер C Type</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1231,14 +1221,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>202B, сер, H, Type</t>
+          <t>202B, сер, LS-2, Type</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1249,17 +1239,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>202B сер LS-2 Type</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1274,14 +1264,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>202B, сер, Type, C</t>
+          <t>202B, сер, H, Type</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1292,39 +1282,39 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BEL-288</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер груз</t>
+          <t>202B сер H Type</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>202B, сер, C, Type</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1335,17 +1325,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>173G сер груз б/к</t>
+          <t>202B сер C Type</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1360,14 +1350,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1378,17 +1368,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>173G сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1403,14 +1393,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1421,17 +1411,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>173G сер груз</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1446,14 +1436,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, груз, б/к</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1464,39 +1454,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>173G сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BEL-288</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>груз, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1507,39 +1497,39 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>173G сер груз</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>173G, сер, груз, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1550,39 +1540,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>173G сер груз</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1593,39 +1583,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>173G сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1636,39 +1626,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BEL-405</t>
+          <t>Ф-35-1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>395/85R20</t>
+          <t>11.2-20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>168J сер груз</t>
+          <t>8 сер сх</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1679,39 +1669,39 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Бел-145</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>445/65R22.5</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>сер груз б/к</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>173G, сер, груз</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1722,413 +1712,34 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Бел-230</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>355/65-15</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>сер</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>173G, сер, груз</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Бел-230М</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>355/65-15</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>сер</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>173G, сер</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BEL-262</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>395/85R20</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>BEL-405</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>168J, сер, груз</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BEL-317</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>445/65R22.5</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Бел-145</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>сер, груз, б/к</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BEL-317S</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>сер ошип</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>355/65-15</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Бел-230</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>сер</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BEL-277</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>205/60R16</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>355/65-15</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Бел-230М</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>сер</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>BEL-262</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>BEL-317</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>BEL-317S</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>сер, ошип</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>205/60R16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>BEL-277</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>44942</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +441,36 @@
           <t>42 сер груз</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,6 +488,32 @@
           <t>Type сер груз LS-2</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -472,6 +531,32 @@
           <t>H Type сер груз</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -489,6 +574,32 @@
           <t>Type сер груз C</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,6 +617,32 @@
           <t>210B Type сер LS-2</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -523,6 +660,32 @@
           <t>210B H Type сер</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,6 +703,32 @@
           <t>210B Type сер C</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -557,6 +746,32 @@
           <t>Type сер груз LS-2</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -574,6 +789,32 @@
           <t>H Type сер груз</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,6 +832,32 @@
           <t>Type сер груз C</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -608,6 +875,32 @@
           <t>202B Type сер LS-2</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -625,6 +918,32 @@
           <t>202B H Type сер</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -642,6 +961,32 @@
           <t>202B Type сер C</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -659,6 +1004,32 @@
           <t>202B Type сер LS-2</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -676,6 +1047,32 @@
           <t>202B H Type сер</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -693,6 +1090,32 @@
           <t>202B Type сер C</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +1133,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -727,6 +1176,32 @@
           <t>сер груз б/к</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -744,6 +1219,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -761,6 +1262,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -778,6 +1305,32 @@
           <t>сер груз</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -795,6 +1348,32 @@
           <t>173G сер груз б/к</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -812,6 +1391,32 @@
           <t>173G сер груз</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -829,6 +1434,32 @@
           <t>173G сер груз</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -846,6 +1477,32 @@
           <t>173G сер груз</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -863,6 +1520,32 @@
           <t>173G сер груз</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -880,6 +1563,32 @@
           <t>173G сер груз</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -897,6 +1606,32 @@
           <t>173G сер</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -914,6 +1649,32 @@
           <t>168J сер груз</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -931,6 +1692,32 @@
           <t>сер груз б/к</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -948,6 +1735,32 @@
           <t>сер</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -965,6 +1778,32 @@
           <t>сер</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -982,6 +1821,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -999,6 +1864,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1016,6 +1907,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1033,6 +1950,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1050,6 +1993,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1065,6 +2034,396 @@
       <c r="C38" t="inlineStr">
         <is>
           <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1317,14 +1317,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, груз</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>сер, груз, б/к</t>
+          <t>сер, груз</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>44949</v>
+        <v>44972</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1608,24 +1608,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>BEL-262</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>42, сер, груз</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BEL-317</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1699,19 +1699,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BEL-317S</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1737,24 +1737,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Type, сер, груз, LS-2</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1780,24 +1780,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>H, Type, сер, груз</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1823,24 +1823,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Type, сер, груз, C</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1866,24 +1866,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>210B, Type, сер, LS-2</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1914,19 +1914,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>210B, H, Type, сер</t>
+          <t>Type, сер, груз, LS-2</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1957,19 +1957,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>210B, Type, сер, C</t>
+          <t>Type, сер, груз, LS-2</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2000,19 +2000,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-122</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Type, сер, груз, LS-2</t>
+          <t>H, Type, сер, груз</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2043,385 +2043,8065 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>42 сер груз</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Type сер груз LS-2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>H Type сер груз</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Type сер груз C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>210B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>210B H Type сер</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>210B Type сер C</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Бел-212</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Type сер груз LS-2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>H Type сер груз</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Type сер груз C</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>202B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>H, Type, сер, груз</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>202B H Type сер</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Бел-212</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>202B Type сер C</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Type, сер, груз, C</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="inlineStr">
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>202B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>202B H Type сер</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>Бел-200</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>202B, Type, сер, LS-2</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="inlineStr">
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>202B Type сер C</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>Бел-200</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>202B, H, Type, сер</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="inlineStr">
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Бел-200</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>202B, Type, сер, C</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="inlineStr">
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>Бел-210</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>202B, Type, сер, LS-2</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="inlineStr">
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>173G сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Бел-210</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>202B, H, Type, сер</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="inlineStr">
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>21.00R35</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Бел-210</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>202B, Type, сер, C</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="inlineStr">
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>14.00R20</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>BEL-248</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>173G сер</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>сер, груз</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="inlineStr">
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>168J сер груз</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>14.00R20</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>BEL-248</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>сер, груз, б/к</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="inlineStr">
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>14.00R20</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>BEL-248</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>сер, груз</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="inlineStr">
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>14.00R20</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>BEL-248</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>сер, груз</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="inlineStr">
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>175/70R13</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Бел-103</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>сер, легк, б/к</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="inlineStr">
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>195/65R15</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Бел-119</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>сер, легк</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>44957</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>42 сер груз</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Type сер груз LS-2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>H Type сер груз</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Type сер груз C</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>210B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>210B H Type сер</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>210B Type сер C</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Type сер груз LS-2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>H Type сер груз</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Type сер груз C</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>202B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>202B H Type сер</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>202B Type сер C</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>202B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>202B H Type сер</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>202B Type сер C</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>173G сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>173G сер</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>168J сер груз</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>42 сер груз</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Type сер груз LS-2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>H Type сер груз</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Type сер груз C</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>210B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>210B H Type сер</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>210B Type сер C</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Type сер груз LS-2</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>H Type сер груз</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Type сер груз C</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>202B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>202B H Type сер</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>202B Type сер C</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>202B Type сер LS-2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>202B H Type сер</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>202B Type сер C</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BEL-288</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>173G сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>173G сер груз</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Бел-95</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>16.00R20</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>173G сер</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BEL-405</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>395/85R20</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>168J сер груз</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Бел-145</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>445/65R22.5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Бел-230</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>175/65R15</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+      <c r="I197" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I198" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>H, Type, сер, груз</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+      <c r="I203" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+      <c r="I204" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+      <c r="I205" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I206" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+      <c r="I207" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+      <c r="I208" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+      <c r="I209" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+      <c r="I210" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I211" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I213" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+      <c r="I217" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I218" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I219" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I220" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I221" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+      <c r="I222" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+      <c r="I223" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+      <c r="I224" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>202B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I230" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I231" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I234" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I236" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+      <c r="I237" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I238" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I239" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>2</v>
+      </c>
+      <c r="I241" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+      <c r="I242" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>сер, груз, б/к</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>2</v>
+      </c>
+      <c r="I247" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+      <c r="I248" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>2</v>
+      </c>
+      <c r="I249" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>2</v>
+      </c>
+      <c r="I251" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>2</v>
+      </c>
+      <c r="I253" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+      <c r="I254" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>2</v>
+      </c>
+      <c r="I255" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>2</v>
+      </c>
+      <c r="I256" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
+        <v>2</v>
+      </c>
+      <c r="I257" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H258" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>2</v>
+      </c>
+      <c r="I259" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>2</v>
+      </c>
+      <c r="I260" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>175/65R15</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>2</v>
+      </c>
+      <c r="I261" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3419,6 +3419,2358 @@
         <v>44985</v>
       </c>
       <c r="J85" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, H</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, H</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>175/65R15</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, H</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, H</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>175/65R15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, H</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, LS-2</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, H</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Type, сер, груз, C</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, H</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>сер, груз</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>175/65R15</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,17 +428,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>35/65-33</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>42 груз сер</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -475,17 +470,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>груз Type сер LS-2</t>
+          <t>42 30 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, груз, сер</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -518,17 +513,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>груз H Type сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -561,17 +556,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>груз C Type сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -586,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -604,17 +599,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>210B Type сер LS-2</t>
+          <t>ошип сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>ошип, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -647,39 +642,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-1001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>235/75R15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>210B H Type сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>235/75R15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-1001</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>груз, Type, сер, LS-2</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,39 +685,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-1002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>155/65R13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>210B C Type сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>155/65R13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-1002</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>груз, H, Type, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -733,39 +728,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>BEL-1004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>груз Type сер LS-2</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Бел-122</t>
+          <t>BEL-1004</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>груз, C, Type, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -776,39 +771,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>BEL-1005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>225/50R17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>груз H Type сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>225/50R17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-1005</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>210B, Type, сер, LS-2</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -819,7 +814,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -829,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз C Type сер</t>
+          <t>210B H Type C сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -844,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, H, Type, сер</t>
+          <t>210B, H, Type, C, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -862,17 +857,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>202B Type сер LS-2</t>
+          <t>груз Type LS-2 сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,19 +877,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, C, Type, сер</t>
+          <t>груз, Type, LS-2, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -915,29 +910,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B H Type сер</t>
+          <t>202B Type C сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, Type, сер, LS-2</t>
+          <t>202B, Type, C, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -948,7 +943,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -958,29 +953,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C Type сер</t>
+          <t>202B H Type LS-2 C сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, H, Type, сер</t>
+          <t>202B, H, Type, LS-2, C, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -991,39 +986,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>202B Type сер LS-2</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>груз, C, Type, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1034,39 +1029,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>202B H Type сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1077,39 +1072,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>202B C Type сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, H, Type, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1120,39 +1115,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Ф-35-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>11.2-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>8 сх сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1163,39 +1158,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>210/80R16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-777</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1206,39 +1201,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-777</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>210/80R16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>215/65R16C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-1000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>202B, H, Type, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1249,39 +1244,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-1000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>215/65R16C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-1001</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1292,39 +1287,39 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BEL-288</t>
+          <t>Бел-1001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12.00R20</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>груз сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>225/50R17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-1005</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>груз, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45005</v>
+        <v>45110</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1335,546 +1330,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Бел-95</t>
+          <t>Бел-1005</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16.00R20</t>
+          <t>225/50R17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>173G б/к груз сер</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>б/к, груз, сер</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>173G груз сер</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>173G груз сер</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>груз, сер</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>173G груз сер</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>б/к, сер, легк</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>173G груз сер</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Бел-119</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>173G груз сер</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>210/80R16</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Бел-777</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Бел-95</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>16.00R20</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>173G сер</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>215/65R16C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Бел-1000</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>BEL-405</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>395/85R20</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>168J груз сер</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>175/65R15</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Бел-1001</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>45005</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Бел-145</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>445/65R22.5</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>б/к груз сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Бел-230</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>355/65-15</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Бел-230М</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>355/65-15</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>сер</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BEL-262</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>б/к сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BEL-317</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>б/к сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BEL-317S</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>сер ошип</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BEL-277</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>205/60R16</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>б/к сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>б/к сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Бел-119</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Бел-777</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>210/80R16</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Бел-1000</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>215/65R16C</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Бел-1001</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>175/65R15</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>сер легк</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45110</v>
+        <v>45138</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,9 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -49,9 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +433,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Tyre Size</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Param</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sales value</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Date_of_sales</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Contragent</t>
-        </is>
-      </c>
+      <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,32 +451,6 @@
           <t>42 30 груз сер</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>35/65-33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ФБел-283</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>42, 30, груз, сер</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,32 +468,6 @@
           <t>сер легк б/к</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>BEL-262</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -569,32 +485,6 @@
           <t>сер легк б/к</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>BEL-317</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -612,32 +502,6 @@
           <t>ошип сер</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BEL-317S</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ошип, сер</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -655,32 +519,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>235/75R15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BEL-1001</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,32 +536,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>155/65R13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BEL-1002</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -741,32 +553,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>BEL-1004</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -784,32 +570,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>225/50R17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>BEL-1005</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -827,32 +587,6 @@
           <t>210B H Type C сер</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Бел-202</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>210B, H, Type, C, сер</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -870,32 +604,6 @@
           <t>груз Type LS-2 сер</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Бел-212</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>груз, Type, LS-2, сер</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -913,32 +621,6 @@
           <t>202B Type C сер</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Бел-200</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>202B, Type, C, сер</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -956,32 +638,6 @@
           <t>202B H Type LS-2 C сер</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Бел-210</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>202B, H, Type, LS-2, C, сер</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -999,32 +655,6 @@
           <t>груз сер б/к</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>груз, сер, б/к</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1042,32 +672,6 @@
           <t>сер легк б/к</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1085,32 +689,6 @@
           <t>сер легк б/к</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Бел-100</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,32 +706,6 @@
           <t>8 сх сер</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Бел-119</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1171,32 +723,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>210/80R16</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Бел-777</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1214,32 +740,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>215/65R16C</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Бел-1000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1257,32 +757,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Бел-1001</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1300,32 +774,6 @@
           <t>сер легк</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>225/50R17</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Бел-1005</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1341,6 +789,23 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>сер легк</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>superDuper</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>легк</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -451,6 +483,32 @@
           <t>42 30 груз сер</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>42, 30, груз, сер</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +526,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -485,6 +569,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -502,6 +612,32 @@
           <t>ошип сер</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ошип, сер</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -519,6 +655,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -536,6 +698,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -553,6 +741,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,6 +784,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -587,6 +827,32 @@
           <t>210B H Type C сер</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210B, H, Type, C, сер</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -604,6 +870,32 @@
           <t>груз Type LS-2 сер</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>груз, Type, LS-2, сер</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -621,6 +913,32 @@
           <t>202B Type C сер</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>202B, Type, C, сер</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -638,6 +956,32 @@
           <t>202B H Type LS-2 C сер</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>202B, H, Type, LS-2, C, сер</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -655,6 +999,32 @@
           <t>груз сер б/к</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>груз, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -672,6 +1042,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -689,6 +1085,32 @@
           <t>сер легк б/к</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>сер, легк, б/к</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -706,6 +1128,32 @@
           <t>8 сх сер</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -723,6 +1171,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -740,6 +1214,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -757,6 +1257,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -772,6 +1298,32 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45138</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 груз сер</t>
+          <t>42 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>42, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -513,39 +513,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Бел-122</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>груз C сер H Type LS-2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>BEL-262</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>BEL-262</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -556,39 +556,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>210B C сер H Type LS-2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>BEL-317</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>BEL-317</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -599,39 +599,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>груз C сер H Type LS-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>BEL-317S</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ошип сер</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BEL-317S</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -642,39 +642,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEL-1001</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>235/75R15</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>202B C сер H Type LS-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>235/75R15</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BEL-1001</t>
+          <t>Бел-202</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>210B, C, сер, H, Type, LS-2</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -685,39 +685,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BEL-1002</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>155/65R13</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>202B C сер H Type LS-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>155/65R13</t>
+          <t>24.00R35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BEL-1002</t>
+          <t>Бел-212</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>груз, C, сер, H, Type, LS-2</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -728,39 +728,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEL-1004</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BEL-1004</t>
+          <t>Бел-200</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>202B, C, сер, H, Type, LS-2</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -771,39 +771,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BEL-1005</t>
+          <t>BEL-288</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>12.00R20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>груз сер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>21.00R35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BEL-1005</t>
+          <t>Бел-210</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>202B, C, сер, H, Type, LS-2</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -814,39 +814,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>Бел-95</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>16.00R20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B H Type C сер</t>
+          <t>173G б/к груз сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, H, Type, C, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -857,39 +857,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>BEL-405</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>395/85R20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз Type LS-2 сер</t>
+          <t>168J груз сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>груз, Type, LS-2, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -900,39 +900,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-145</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>445/65R22.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B Type C сер</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>202B, Type, C, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -943,39 +943,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-230</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>355/65-15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B H Type LS-2 C сер</t>
+          <t>сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>202B, H, Type, LS-2, C, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45138</v>
+        <v>45244</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,378 +986,153 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-230М</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>355/65-15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>груз сер б/к</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>груз, сер, б/к</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>сер</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бел-103</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бел-100</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Бел-100</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>сер, легк, б/к</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ф-35-1</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11.2-20</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Бел-119</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>сер ошип</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Бел-119</t>
+          <t>BEL-277</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>205/60R16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>210/80R16</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Бел-777</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Бел-777</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>210/80R16</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>215/65R16C</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Бел-1000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Бел-1000</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>215/65R16C</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Бел-1001</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Бел-1001</t>
+          <t>Ф-35-1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>11.2-20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>225/50R17</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Бел-1005</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>сер, легк</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>45138</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>нет данных</t>
+          <t>8 168J сх сер</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Бел-1005</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>сер легк</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>superDuper</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>155/65R13</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>легк</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 груз сер 30</t>
+          <t>42 30 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, груз, сер, 30</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к сх груз сер 12 16 163A6</t>
+          <t>12 16 163A6 груз сер сх б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 28, 32</t>
+          <t>28, 32, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>б/к груз сер 28 32</t>
+          <t>28 32 груз сер б/к</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 28, 32</t>
+          <t>28, 32, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>б/к груз сер 28 32</t>
+          <t>28 32 груз сер б/к</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 28, 32</t>
+          <t>28, 32, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>б/к груз сер 28 32</t>
+          <t>28 32 груз сер б/к</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,14 +710,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, 193B, LS-2, Type</t>
+          <t>193B, C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>груз C сер H 193B LS-2 Type</t>
+          <t>193B C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>груз, сер, 205B</t>
+          <t>205B, груз, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз сер 205B</t>
+          <t>205B груз сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 20, 24</t>
+          <t>20, 24, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>б/к груз сер 20 24</t>
+          <t>20 24 груз сер б/к</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 28</t>
+          <t>28, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>б/к груз сер 28</t>
+          <t>28 груз сер б/к</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 20</t>
+          <t>20, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к груз сер 20</t>
+          <t>20 груз сер б/к</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>груз, сер, 36</t>
+          <t>36, груз, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>груз сер 36</t>
+          <t>36 груз сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>груз, сер, 36</t>
+          <t>36, груз, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>груз сер 36</t>
+          <t>36 груз сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>груз, сер, 32</t>
+          <t>32, груз, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>груз сер 32</t>
+          <t>32 груз сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>сх, груз, сер, 12, 16, 10</t>
+          <t>12, 16, 10, груз, сер, сх</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сх груз сер 12 16 10</t>
+          <t>12 16 10 груз сер сх</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 28, 20, 16</t>
+          <t>28, 20, 16, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>б/к груз сер 28 20 16</t>
+          <t>28 20 16 груз сер б/к</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>груз, сер, 170B</t>
+          <t>170B, груз, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>груз сер 170B</t>
+          <t>170B груз сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, 177, 186A2, LS-2, Type</t>
+          <t>177, 186A2, C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>груз C сер H 177 186A2 LS-2 Type</t>
+          <t>177 186A2 C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 32, 36, 40</t>
+          <t>32, 36, 40, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>б/к груз сер 32 36 40</t>
+          <t>32 36 40 груз сер б/к</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>б/к, сер, 28</t>
+          <t>28, сер, б/к</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>б/к сер 28</t>
+          <t>28 сер б/к</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1398,14 +1398,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>груз, сер, 32</t>
+          <t>32, груз, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>груз сер 32</t>
+          <t>32 груз сер</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>б/к, груз, C, сер, H, 185B, LS-2, Type</t>
+          <t>185B, C, H, Type, груз, сер, LS-2, б/к</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>б/к груз C сер H 185B LS-2 Type</t>
+          <t>185B C H Type груз сер LS-2 б/к</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>груз, сер, 215A2</t>
+          <t>215A2, груз, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>груз сер 215A2</t>
+          <t>215A2 груз сер</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1527,14 +1527,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C, сер, H, 170B, LS-2, L-2</t>
+          <t>170B, C, H, L-2, сер, LS-2</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C сер H 170B LS-2 L-2</t>
+          <t>170B C H L-2 сер LS-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1570,14 +1570,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>груз, сер, 164A2</t>
+          <t>164A2, груз, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>груз сер 164A2</t>
+          <t>164A2 груз сер</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>груз, сер, 20, 22</t>
+          <t>20, 22, груз, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>груз сер 20 22</t>
+          <t>20 22 груз сер</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1656,14 +1656,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>б/к, груз, сер, 12, 20, 16</t>
+          <t>12, 20, 16, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>б/к груз сер 12 20 16</t>
+          <t>12 20 16 груз сер б/к</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1699,14 +1699,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>б/к, груз, C, сер, H, 182A2, LS-2</t>
+          <t>182A2, C, H, груз, сер, LS-2, б/к</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>б/к груз C сер H 182A2 LS-2</t>
+          <t>182A2 C H груз сер LS-2 б/к</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1742,14 +1742,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>б/к, груз, C, сер, H, 182A2, LS-2</t>
+          <t>182A2, C, H, груз, сер, LS-2, б/к</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>б/к груз C сер H 182A2 LS-2</t>
+          <t>182A2 C H груз сер LS-2 б/к</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1785,14 +1785,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>груз, сер, 20, 16, 18, 10</t>
+          <t>20, 16, 18, 10, груз, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>груз сер 20 16 18 10</t>
+          <t>20 16 18 10 груз сер</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1828,14 +1828,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>груз, сер, 20</t>
+          <t>20, груз, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>груз сер 20</t>
+          <t>20 груз сер</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>груз, сер, 22</t>
+          <t>22, груз, сер</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>груз сер 22</t>
+          <t>22 груз сер</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1914,14 +1914,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>груз, сер, 22, 10, 14</t>
+          <t>22, 10, 14, груз, сер</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>груз сер 22 10 14</t>
+          <t>22 10 14 груз сер</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1957,14 +1957,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>груз, сер, 188A2</t>
+          <t>188A2, груз, сер</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>груз сер 188A2</t>
+          <t>188A2 груз сер</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2000,14 +2000,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>груз, сер, 26</t>
+          <t>26, груз, сер</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>груз сер 26</t>
+          <t>26 груз сер</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>б/к, сер, 26</t>
+          <t>26, сер, б/к</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>б/к сер 26</t>
+          <t>26 сер б/к</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2086,14 +2086,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>груз, сер, 12</t>
+          <t>12, груз, сер</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>груз сер 12</t>
+          <t>12 груз сер</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>груз, сер, 16, 172D</t>
+          <t>16, 172D, груз, сер</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>груз сер 16 172D</t>
+          <t>16 172D груз сер</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2172,14 +2172,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>груз, сер, 14, 176E</t>
+          <t>14, 176E, груз, сер</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>груз сер 14 176E</t>
+          <t>14 176E груз сер</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2215,14 +2215,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2258,14 +2258,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, 200B, LS-2, Type</t>
+          <t>200B, C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>груз C сер H 200B LS-2 Type</t>
+          <t>200B C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2301,14 +2301,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, 200B, LS-2, Type</t>
+          <t>200B, C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>груз C сер H 200B LS-2 Type</t>
+          <t>200B C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2344,14 +2344,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>б/к, груз, C, сер, H, 185B, LS-2, Type</t>
+          <t>185B, C, H, Type, груз, сер, LS-2, б/к</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>б/к груз C сер H 185B LS-2 Type</t>
+          <t>185B C H Type груз сер LS-2 б/к</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, 185B, LS-2, Type</t>
+          <t>185B, C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>груз C сер H 185B LS-2 Type</t>
+          <t>185B C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2430,14 +2430,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>б/к, сх, груз, сер, 168B, 165A8</t>
+          <t>168B, 165A8, груз, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>б/к сх груз сер 168B 165A8</t>
+          <t>168B 165A8 груз сер сх б/к</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2566,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2602,14 +2602,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>сх, сер, 158A8, 170A6</t>
+          <t>158A8, 170A6, сер, сх</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>2</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>сх сер 158A8 170A6</t>
+          <t>158A8 170A6 сер сх</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2645,14 +2645,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>сх, сер, 12, 172A8</t>
+          <t>12, 172A8, сер, сх</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>сх сер 12 170A6</t>
+          <t>12 170A6 сер сх</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2688,14 +2688,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>сх, сер, 12, 18, 169A8</t>
+          <t>12, 18, 169A8, сер, сх</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>сх сер 12 172A8</t>
+          <t>12 172A8 сер сх</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2731,14 +2731,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>сх, сер, 10</t>
+          <t>10, сер, сх</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>сх сер 12 18 169A8</t>
+          <t>12 18 169A8 сер сх</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2774,14 +2774,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 12, 16</t>
+          <t>12, 16, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>сх сер 10</t>
+          <t>10 сер сх</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2817,14 +2817,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>сх, сер, 156A8</t>
+          <t>156A8, сер, сх</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>б/к сх сер 12 16</t>
+          <t>12 16 сер сх б/к</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2860,14 +2860,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>сх, сер, 167A8</t>
+          <t>167A8, сер, сх</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>2</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>сх сер 156A8</t>
+          <t>156A8 сер сх</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2903,14 +2903,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>сх, сер, 166A8</t>
+          <t>166A8, сер, сх</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>сх сер 167A8</t>
+          <t>167A8 сер сх</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2946,14 +2946,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>сх, сер, 166A8</t>
+          <t>166A8, сер, сх</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>2</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>сх сер 166A8</t>
+          <t>166A8 сер сх</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2989,14 +2989,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 158D</t>
+          <t>158D, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>сх сер 166A8</t>
+          <t>166A8 сер сх</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3032,14 +3032,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>сх, сер, 147A8</t>
+          <t>147A8, сер, сх</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>б/к сх сер 158D</t>
+          <t>158D сер сх б/к</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3075,14 +3075,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>сх, сер, 155A8</t>
+          <t>155A8, сер, сх</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>сх сер 147A8</t>
+          <t>147A8 сер сх</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3118,14 +3118,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>сх, сер, 155A8</t>
+          <t>155A8, сер, сх</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>сх сер 155A8</t>
+          <t>155A8 сер сх</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3161,14 +3161,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>сх, сер, 153A8, 161A8</t>
+          <t>153A8, 161A8, сер, сх</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>сх сер 155A8</t>
+          <t>155A8 сер сх</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3204,14 +3204,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>сер, 151A8</t>
+          <t>151A8, сер</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>сх сер 153A8 161A8</t>
+          <t>153A8 161A8 сер сх</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3247,14 +3247,14 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>б/к, сх, груз, сер, 12, 16, 163A6</t>
+          <t>12, 16, 163A6, груз, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>сер 151A8</t>
+          <t>151A8 сер</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3290,14 +3290,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>сх, сер, 141A6</t>
+          <t>141A6, сер, сх</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>2</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>сх сер 146A8</t>
+          <t>146A8 сер сх</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3333,14 +3333,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>сх, сер, 144A8</t>
+          <t>144A8, сер, сх</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>2</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>сх сер 141A6</t>
+          <t>141A6 сер сх</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3376,14 +3376,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>сх, сер, 12</t>
+          <t>12, сер, сх</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>2</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>сх сер 144A8</t>
+          <t>144A8 сер сх</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3419,14 +3419,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 141A8</t>
+          <t>141A8, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>сх сер 12</t>
+          <t>12 сер сх</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3462,14 +3462,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>сх, сер, 154A8</t>
+          <t>154A8, сер, сх</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>б/к сх сер 141A8</t>
+          <t>141A8 сер сх б/к</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3505,14 +3505,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>сх, сер, 133A8</t>
+          <t>133A8, сер, сх</t>
         </is>
       </c>
       <c r="H72" t="n">
         <v>2</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>сх сер 154A8</t>
+          <t>154A8 сер сх</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>сх, сер, 28, 10</t>
+          <t>28, 10, сер, сх</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>сх сер 133A8</t>
+          <t>133A8 сер сх</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3591,14 +3591,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 166A8, 148A8</t>
+          <t>166A8, 148A8, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>сх сер 28 10</t>
+          <t>28 10 сер сх</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3634,14 +3634,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>сх, сер, 130A8</t>
+          <t>130A8, сер, сх</t>
         </is>
       </c>
       <c r="H75" t="n">
         <v>2</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>б/к сх сер 166A8 148A8</t>
+          <t>166A8 148A8 сер сх б/к</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3677,14 +3677,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>сх, сер, 122A8</t>
+          <t>122A8, сер, сх</t>
         </is>
       </c>
       <c r="H76" t="n">
         <v>2</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>сх сер 130A8</t>
+          <t>130A8 сер сх</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3720,14 +3720,14 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>сх, сер, 159A8</t>
+          <t>159A8, сер, сх</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>сх сер 122A8</t>
+          <t>122A8 сер сх</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3763,14 +3763,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>сх, сер, 150A8</t>
+          <t>150A8, сер, сх</t>
         </is>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>сх сер 159A8</t>
+          <t>159A8 сер сх</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3806,14 +3806,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>сх, сер, 28</t>
+          <t>28, сер, сх</t>
         </is>
       </c>
       <c r="H79" t="n">
         <v>2</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3849,14 +3849,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>сх, сер, 28</t>
+          <t>28, сер, сх</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>2</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>сх сер 150A8</t>
+          <t>150A8 сер сх</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3892,14 +3892,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 114A8</t>
+          <t>114A8, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H81" t="n">
         <v>2</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>сер 163A8</t>
+          <t>163A8 сер</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3935,14 +3935,14 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>сх, сер, 28</t>
+          <t>28, сер, сх</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>2</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3978,14 +3978,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 148A8</t>
+          <t>148A8, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>2</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4021,14 +4021,14 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>сх, сер, 160D</t>
+          <t>160D, сер, сх</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>2</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>б/к сх сер 114A8</t>
+          <t>114A8 сер сх б/к</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4064,14 +4064,14 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>сх, сер, 146A8</t>
+          <t>146A8, сер, сх</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>2</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4107,14 +4107,14 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>сх, сер, 149A6, 153A6</t>
+          <t>149A6, 153A6, сер, сх</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>2</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>б/к сх сер 148A8</t>
+          <t>148A8 сер сх б/к</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4150,14 +4150,14 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>42, сх, сер, L-2</t>
+          <t>42, L-2, сер, сх</t>
         </is>
       </c>
       <c r="H87" t="n">
         <v>2</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>сх сер 160D</t>
+          <t>160D сер сх</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4193,14 +4193,14 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>сх, сер, 28</t>
+          <t>28, сер, сх</t>
         </is>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>сх сер 146A8</t>
+          <t>146A8 сер сх</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4236,14 +4236,14 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>сх, сер, 12, 28, 14</t>
+          <t>12, 28, 14, сер, сх</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>2</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>сх сер 10 14</t>
+          <t>10 14 сер сх</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4279,14 +4279,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>2</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>сх сер 149A6 153A6</t>
+          <t>149A6 153A6 сер сх</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>сх, сер, 159D</t>
+          <t>159D, сер, сх</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>42 сх сер L-2</t>
+          <t>42 L-2 сер сх</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4365,14 +4365,14 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>2</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4408,14 +4408,14 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>сх, сер, 129A8</t>
+          <t>129A8, сер, сх</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>2</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>сх сер 12 28 14</t>
+          <t>12 28 14 сер сх</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4451,14 +4451,14 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>сх, сер, 28</t>
+          <t>28, сер, сх</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>сх, сер, 28, 124A8</t>
+          <t>28, 124A8, сер, сх</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>2</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>сх сер 159D</t>
+          <t>159D сер сх</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>2</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4580,14 +4580,14 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>сх, сер, 10</t>
+          <t>10, сер, сх</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>2</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4623,14 +4623,14 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>сх, сер, 104A6, вен.161</t>
+          <t>104A6, вен.161, сер, сх</t>
         </is>
       </c>
       <c r="H98" t="n">
         <v>2</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>сх сер 129A8</t>
+          <t>129A8 сер сх</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4666,14 +4666,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>2</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4709,14 +4709,14 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>сх, сер, вен.161</t>
+          <t>вен.161, сер, сх</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>сх сер 28 10 14</t>
+          <t>28 10 14 сер сх</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4752,14 +4752,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>сх, сер, 10, вен.161</t>
+          <t>10, вен.161, сер, сх</t>
         </is>
       </c>
       <c r="H101" t="n">
         <v>2</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>сх сер 28 10</t>
+          <t>28 10 сер сх</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>сх, сер, 126A8</t>
+          <t>126A8, сер, сх</t>
         </is>
       </c>
       <c r="H102" t="n">
         <v>2</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4838,14 +4838,14 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>б/к, сер, 167A8</t>
+          <t>167A8, сер, б/к</t>
         </is>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>сх сер 28 124A8</t>
+          <t>28 124A8 сер сх</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4881,14 +4881,14 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 167A8, 178A8</t>
+          <t>167A8, 178A8, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H104" t="n">
         <v>2</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>сх сер 28 10</t>
+          <t>28 10 сер сх</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4924,14 +4924,14 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>сх, сер, 188A8</t>
+          <t>188A8, сер, сх</t>
         </is>
       </c>
       <c r="H105" t="n">
         <v>2</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4967,14 +4967,14 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>сх, сер, 180A8</t>
+          <t>180A8, сер, сх</t>
         </is>
       </c>
       <c r="H106" t="n">
         <v>2</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5010,14 +5010,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>сх, сер, 151D</t>
+          <t>151D, сер, сх</t>
         </is>
       </c>
       <c r="H107" t="n">
         <v>2</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>сх сер 10</t>
+          <t>10 сер сх</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5053,14 +5053,14 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>сх, сер, 151D</t>
+          <t>151D, сер, сх</t>
         </is>
       </c>
       <c r="H108" t="n">
         <v>2</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>сх сер 104A6 вен.161</t>
+          <t>104A6 вен.161 сер сх</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5096,14 +5096,14 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>сх, сер, 147A8, 154A8, 162A8</t>
+          <t>147A8, 154A8, 162A8, сер, сх</t>
         </is>
       </c>
       <c r="H109" t="n">
         <v>2</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5139,14 +5139,14 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>б/к, сер, 168A8</t>
+          <t>168A8, сер, б/к</t>
         </is>
       </c>
       <c r="H110" t="n">
         <v>2</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>42 сх сер L-2</t>
+          <t>42 L-2 сер сх</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5182,14 +5182,14 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>сх, сер, 174A8</t>
+          <t>174A8, сер, сх</t>
         </is>
       </c>
       <c r="H111" t="n">
         <v>2</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>сх сер L-2</t>
+          <t>L-2 сер сх</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5225,14 +5225,14 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>сх, сер, 166D</t>
+          <t>166D, сер, сх</t>
         </is>
       </c>
       <c r="H112" t="n">
         <v>2</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>сх сер вен.161</t>
+          <t>вен.161 сер сх</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5268,14 +5268,14 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>сх, сер, 173D</t>
+          <t>173D, сер, сх</t>
         </is>
       </c>
       <c r="H113" t="n">
         <v>2</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>42 сх сер 28</t>
+          <t>42 28 сер сх</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5311,14 +5311,14 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>сх, сер, 101A6</t>
+          <t>101A6, сер, сх</t>
         </is>
       </c>
       <c r="H114" t="n">
         <v>2</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>сх сер 12</t>
+          <t>12 сер сх</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5354,14 +5354,14 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>б/к, сх, сер, 150A8</t>
+          <t>150A8, сер, сх, б/к</t>
         </is>
       </c>
       <c r="H115" t="n">
         <v>2</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>42 сх сер 28</t>
+          <t>42 28 сер сх</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5397,14 +5397,14 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>сх, сер, 28</t>
+          <t>28, сер, сх</t>
         </is>
       </c>
       <c r="H116" t="n">
         <v>2</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>сх сер 10 вен.161</t>
+          <t>10 вен.161 сер сх</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>сер, 10</t>
+          <t>10, сер</t>
         </is>
       </c>
       <c r="H117" t="n">
         <v>2</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>сер 126A8</t>
+          <t>126A8 сер</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5483,14 +5483,14 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>сер, 14</t>
+          <t>14, сер</t>
         </is>
       </c>
       <c r="H118" t="n">
         <v>2</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>сх сер 126A8</t>
+          <t>126A8 сер сх</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5526,14 +5526,14 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>сер, 14</t>
+          <t>14, сер</t>
         </is>
       </c>
       <c r="H119" t="n">
         <v>2</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>б/к сер 167A8</t>
+          <t>167A8 сер б/к</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5569,14 +5569,14 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>сер, 145A2</t>
+          <t>145A2, сер</t>
         </is>
       </c>
       <c r="H120" t="n">
         <v>2</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>б/к сх сер 167A8 178A8</t>
+          <t>167A8 178A8 сер сх б/к</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5612,14 +5612,14 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>сер, 135A2</t>
+          <t>135A2, сер</t>
         </is>
       </c>
       <c r="H121" t="n">
         <v>2</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>сх сер 188A8</t>
+          <t>188A8 сер сх</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5655,14 +5655,14 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>сер, 12</t>
+          <t>12, сер</t>
         </is>
       </c>
       <c r="H122" t="n">
         <v>2</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>сх сер 180A8</t>
+          <t>180A8 сер сх</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5698,14 +5698,14 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>сер, 14</t>
+          <t>14, сер</t>
         </is>
       </c>
       <c r="H123" t="n">
         <v>2</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>сх сер 151D</t>
+          <t>151D сер сх</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>сер, 12, 10</t>
+          <t>12, 10, сер</t>
         </is>
       </c>
       <c r="H124" t="n">
         <v>2</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>сх сер 151D</t>
+          <t>151D сер сх</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>сер, 10</t>
+          <t>10, сер</t>
         </is>
       </c>
       <c r="H125" t="n">
         <v>2</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>сх сер 147A8 154A8 162A8</t>
+          <t>147A8 154A8 162A8 сер сх</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5834,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>б/к сер 168A8</t>
+          <t>168A8 сер б/к</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5877,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>сх сер 174A8</t>
+          <t>174A8 сер сх</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5920,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>сх сер 20 24 16</t>
+          <t>20 24 16 сер сх</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>сх сер 166D</t>
+          <t>166D сер сх</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>сх сер 173D</t>
+          <t>173D сер сх</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>сх сер 101A6</t>
+          <t>101A6 сер сх</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6085,14 +6085,14 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>груз, сер, 156L</t>
+          <t>156L, груз, сер</t>
         </is>
       </c>
       <c r="H132" t="n">
         <v>2</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>б/к сх сер 150A8</t>
+          <t>150A8 сер сх б/к</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>груз, сер, 16, 18</t>
+          <t>16, 18, груз, сер</t>
         </is>
       </c>
       <c r="H133" t="n">
         <v>2</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6171,14 +6171,14 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>груз, сер, 18</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H134" t="n">
         <v>2</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>сх сер 28</t>
+          <t>28 сер сх</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6214,14 +6214,14 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>груз, сер, 18</t>
+          <t>18, груз, сер</t>
         </is>
       </c>
       <c r="H135" t="n">
         <v>2</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>сер 10</t>
+          <t>10 сер</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6264,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>сер 14</t>
+          <t>14 сер</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6307,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>сер 14</t>
+          <t>14 сер</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6350,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>сер 145A2</t>
+          <t>145A2 сер</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>сер 135A2</t>
+          <t>135A2 сер</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6436,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>сер 12</t>
+          <t>12 сер</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6472,14 +6472,14 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>груз, сер, 16, 18</t>
+          <t>16, 18, груз, сер</t>
         </is>
       </c>
       <c r="H141" t="n">
         <v>2</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>сер 14</t>
+          <t>14 сер</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6515,14 +6515,14 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>груз, сер, 16</t>
+          <t>16, груз, сер</t>
         </is>
       </c>
       <c r="H142" t="n">
         <v>2</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>сер 12 10</t>
+          <t>12 10 сер</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6565,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>сер 10</t>
+          <t>10 сер</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6608,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>сер легк вен.161</t>
+          <t>вен.161 сер легк</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6644,14 +6644,14 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>груз, сер, 14</t>
+          <t>14, груз, сер</t>
         </is>
       </c>
       <c r="H145" t="n">
         <v>2</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6687,14 +6687,14 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>груз, сер, 12, 14</t>
+          <t>12, 14, груз, сер</t>
         </is>
       </c>
       <c r="H146" t="n">
         <v>2</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6730,14 +6730,14 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>груз, сер, 12, 10</t>
+          <t>12, 10, груз, сер</t>
         </is>
       </c>
       <c r="H147" t="n">
         <v>2</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>2</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>груз сер 156L</t>
+          <t>156L груз сер</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6952,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>груз сер 16 18</t>
+          <t>16 18 груз сер</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>груз сер 18</t>
+          <t>18 груз сер</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7038,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>груз сер 18</t>
+          <t>18 груз сер</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7081,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -7117,14 +7117,14 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>груз, сер, 16</t>
+          <t>16, груз, сер</t>
         </is>
       </c>
       <c r="H156" t="n">
         <v>2</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -7203,14 +7203,14 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>груз, сер, 152K</t>
+          <t>152K, груз, сер</t>
         </is>
       </c>
       <c r="H158" t="n">
         <v>2</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>груз сер 16 18</t>
+          <t>16 18 груз сер</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>груз сер 16</t>
+          <t>16 груз сер</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7382,7 +7382,7 @@
         <v>2</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7418,14 +7418,14 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H163" t="n">
         <v>2</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>груз сер 14</t>
+          <t>14 груз сер</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>2</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>груз сер 12 14</t>
+          <t>12 14 груз сер</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>груз сер 12 10</t>
+          <t>12 10 груз сер</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7597,7 +7597,7 @@
         <v>2</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>2</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7676,14 +7676,14 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H169" t="n">
         <v>2</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>2</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7762,14 +7762,14 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H171" t="n">
         <v>2</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="I172" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7891,14 +7891,14 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>сх, сер, вен.161</t>
+          <t>вен.161, сер, сх</t>
         </is>
       </c>
       <c r="H174" t="n">
         <v>2</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7934,14 +7934,14 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>сх, сер, 102A8</t>
+          <t>102A8, сер, сх</t>
         </is>
       </c>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>груз сер 16</t>
+          <t>16 груз сер</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7977,14 +7977,14 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H176" t="n">
         <v>2</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -8020,14 +8020,14 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H177" t="n">
         <v>2</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>груз сер 152K</t>
+          <t>152K груз сер</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8063,14 +8063,14 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>сх, сер</t>
+          <t>сер, сх</t>
         </is>
       </c>
       <c r="H178" t="n">
         <v>2</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -8106,14 +8106,14 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H179" t="n">
         <v>2</v>
       </c>
       <c r="I179" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -8149,14 +8149,14 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H180" t="n">
         <v>2</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -8192,14 +8192,14 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H181" t="n">
         <v>2</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -8235,14 +8235,14 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H182" t="n">
         <v>2</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8285,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -8321,14 +8321,14 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H184" t="n">
         <v>2</v>
       </c>
       <c r="I184" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -8364,14 +8364,14 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H185" t="n">
         <v>2</v>
       </c>
       <c r="I185" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -8450,14 +8450,14 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H187" t="n">
         <v>2</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="I188" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8536,14 +8536,14 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H189" t="n">
         <v>2</v>
       </c>
       <c r="I189" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -8579,14 +8579,14 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H190" t="n">
         <v>2</v>
       </c>
       <c r="I190" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8622,14 +8622,14 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H191" t="n">
         <v>2</v>
       </c>
       <c r="I191" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="I192" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -8708,14 +8708,14 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H193" t="n">
         <v>2</v>
       </c>
       <c r="I193" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>сх сер вен.161</t>
+          <t>вен.161 сер сх</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8751,14 +8751,14 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H194" t="n">
         <v>2</v>
       </c>
       <c r="I194" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>сх сер 102A8</t>
+          <t>102A8 сер сх</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8794,14 +8794,14 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H195" t="n">
         <v>2</v>
       </c>
       <c r="I195" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8837,14 +8837,14 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H196" t="n">
         <v>2</v>
       </c>
       <c r="I196" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8880,14 +8880,14 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H197" t="n">
         <v>2</v>
       </c>
       <c r="I197" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>сх сер</t>
+          <t>сер сх</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8923,14 +8923,14 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H198" t="n">
         <v>2</v>
       </c>
       <c r="I198" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="I199" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9009,14 +9009,14 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>б/к, сер</t>
+          <t>сер, б/к</t>
         </is>
       </c>
       <c r="H200" t="n">
         <v>2</v>
       </c>
       <c r="I200" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9052,14 +9052,14 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H201" t="n">
         <v>2</v>
       </c>
       <c r="I201" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9095,14 +9095,14 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H202" t="n">
         <v>2</v>
       </c>
       <c r="I202" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="I203" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -9181,14 +9181,14 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H204" t="n">
         <v>2</v>
       </c>
       <c r="I204" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9224,14 +9224,14 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H205" t="n">
         <v>2</v>
       </c>
       <c r="I205" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="I206" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9310,14 +9310,14 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H207" t="n">
         <v>2</v>
       </c>
       <c r="I207" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -9353,14 +9353,14 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H208" t="n">
         <v>2</v>
       </c>
       <c r="I208" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9396,14 +9396,14 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H209" t="n">
         <v>2</v>
       </c>
       <c r="I209" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9439,14 +9439,14 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H210" t="n">
         <v>2</v>
       </c>
       <c r="I210" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9482,14 +9482,14 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H211" t="n">
         <v>2</v>
       </c>
       <c r="I211" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>2</v>
       </c>
       <c r="I212" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9568,14 +9568,14 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H213" t="n">
         <v>2</v>
       </c>
       <c r="I213" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9611,14 +9611,14 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H214" t="n">
         <v>2</v>
       </c>
       <c r="I214" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9654,14 +9654,14 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H215" t="n">
         <v>2</v>
       </c>
       <c r="I215" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9697,14 +9697,14 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H216" t="n">
         <v>2</v>
       </c>
       <c r="I216" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H217" t="n">
         <v>2</v>
       </c>
       <c r="I217" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9783,14 +9783,14 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H218" t="n">
         <v>2</v>
       </c>
       <c r="I218" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -9826,14 +9826,14 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H219" t="n">
         <v>2</v>
       </c>
       <c r="I219" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>б/к сер</t>
+          <t>сер б/к</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9869,14 +9869,14 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H220" t="n">
         <v>2</v>
       </c>
       <c r="I220" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9919,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="I221" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9955,14 +9955,14 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H222" t="n">
         <v>2</v>
       </c>
       <c r="I222" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -9998,14 +9998,14 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H223" t="n">
         <v>2</v>
       </c>
       <c r="I223" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10048,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="I224" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -10084,14 +10084,14 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H225" t="n">
         <v>2</v>
       </c>
       <c r="I225" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -10127,14 +10127,14 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H226" t="n">
         <v>2</v>
       </c>
       <c r="I226" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -10170,14 +10170,14 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H227" t="n">
         <v>2</v>
       </c>
       <c r="I227" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10220,7 +10220,7 @@
         <v>2</v>
       </c>
       <c r="I228" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10256,14 +10256,14 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H229" t="n">
         <v>2</v>
       </c>
       <c r="I229" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10299,14 +10299,14 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H230" t="n">
         <v>2</v>
       </c>
       <c r="I230" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10342,14 +10342,14 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H231" t="n">
         <v>2</v>
       </c>
       <c r="I231" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -10385,14 +10385,14 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H232" t="n">
         <v>2</v>
       </c>
       <c r="I232" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10428,14 +10428,14 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H233" t="n">
         <v>2</v>
       </c>
       <c r="I233" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10471,14 +10471,14 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H234" t="n">
         <v>2</v>
       </c>
       <c r="I234" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10514,14 +10514,14 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H235" t="n">
         <v>2</v>
       </c>
       <c r="I235" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10557,14 +10557,14 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H236" t="n">
         <v>2</v>
       </c>
       <c r="I236" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10600,14 +10600,14 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H237" t="n">
         <v>2</v>
       </c>
       <c r="I237" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10643,14 +10643,14 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H238" t="n">
         <v>2</v>
       </c>
       <c r="I238" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10686,14 +10686,14 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H239" t="n">
         <v>2</v>
       </c>
       <c r="I239" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10729,14 +10729,14 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H240" t="n">
         <v>2</v>
       </c>
       <c r="I240" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -10772,14 +10772,14 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H241" t="n">
         <v>2</v>
       </c>
       <c r="I241" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10815,14 +10815,14 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H242" t="n">
         <v>2</v>
       </c>
       <c r="I242" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10858,14 +10858,14 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H243" t="n">
         <v>2</v>
       </c>
       <c r="I243" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="I244" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10944,14 +10944,14 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H245" t="n">
         <v>2</v>
       </c>
       <c r="I245" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10987,14 +10987,14 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H246" t="n">
         <v>2</v>
       </c>
       <c r="I246" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -11030,14 +11030,14 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H247" t="n">
         <v>2</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -11073,14 +11073,14 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H248" t="n">
         <v>2</v>
       </c>
       <c r="I248" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -11116,14 +11116,14 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H249" t="n">
         <v>2</v>
       </c>
       <c r="I249" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -11159,14 +11159,14 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H250" t="n">
         <v>2</v>
       </c>
       <c r="I250" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -11202,14 +11202,14 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H251" t="n">
         <v>2</v>
       </c>
       <c r="I251" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11245,14 +11245,14 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H252" t="n">
         <v>2</v>
       </c>
       <c r="I252" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11288,14 +11288,14 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H253" t="n">
         <v>2</v>
       </c>
       <c r="I253" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11338,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="I254" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11374,14 +11374,14 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H255" t="n">
         <v>2</v>
       </c>
       <c r="I255" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11417,14 +11417,14 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H256" t="n">
         <v>2</v>
       </c>
       <c r="I256" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11460,14 +11460,14 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H257" t="n">
         <v>2</v>
       </c>
       <c r="I257" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11503,14 +11503,14 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H258" t="n">
         <v>2</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11546,14 +11546,14 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H259" t="n">
         <v>2</v>
       </c>
       <c r="I259" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11589,14 +11589,14 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H260" t="n">
         <v>2</v>
       </c>
       <c r="I260" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11632,14 +11632,14 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H261" t="n">
         <v>2</v>
       </c>
       <c r="I261" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11675,14 +11675,14 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H262" t="n">
         <v>2</v>
       </c>
       <c r="I262" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11718,14 +11718,14 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H263" t="n">
         <v>2</v>
       </c>
       <c r="I263" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -11761,14 +11761,14 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H264" t="n">
         <v>2</v>
       </c>
       <c r="I264" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11804,14 +11804,14 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H265" t="n">
         <v>2</v>
       </c>
       <c r="I265" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11847,14 +11847,14 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H266" t="n">
         <v>2</v>
       </c>
       <c r="I266" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>2</v>
       </c>
       <c r="I267" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11933,14 +11933,14 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H268" t="n">
         <v>2</v>
       </c>
       <c r="I268" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11976,14 +11976,14 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H269" t="n">
         <v>2</v>
       </c>
       <c r="I269" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -12019,14 +12019,14 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H270" t="n">
         <v>2</v>
       </c>
       <c r="I270" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -12062,14 +12062,14 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H271" t="n">
         <v>2</v>
       </c>
       <c r="I271" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -12105,14 +12105,14 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H272" t="n">
         <v>2</v>
       </c>
       <c r="I272" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -12148,14 +12148,14 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H273" t="n">
         <v>2</v>
       </c>
       <c r="I273" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -12191,14 +12191,14 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H274" t="n">
         <v>2</v>
       </c>
       <c r="I274" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -12234,14 +12234,14 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H275" t="n">
         <v>2</v>
       </c>
       <c r="I275" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12277,14 +12277,14 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H276" t="n">
         <v>2</v>
       </c>
       <c r="I276" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -12320,14 +12320,14 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>б/к, сер, л/г</t>
+          <t>сер, б/к, л/г</t>
         </is>
       </c>
       <c r="H277" t="n">
         <v>2</v>
       </c>
       <c r="I277" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -12363,14 +12363,14 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>б/к, сер, л/г</t>
+          <t>сер, б/к, л/г</t>
         </is>
       </c>
       <c r="H278" t="n">
         <v>2</v>
       </c>
       <c r="I278" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -12406,14 +12406,14 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>б/к, сер, л/г</t>
+          <t>сер, б/к, л/г</t>
         </is>
       </c>
       <c r="H279" t="n">
         <v>2</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>б/к, сер, л/г</t>
+          <t>сер, б/к, л/г</t>
         </is>
       </c>
       <c r="H280" t="n">
         <v>2</v>
       </c>
       <c r="I280" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -12499,7 +12499,7 @@
         <v>2</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12542,7 +12542,7 @@
         <v>2</v>
       </c>
       <c r="I282" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12585,7 +12585,7 @@
         <v>2</v>
       </c>
       <c r="I283" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12628,7 +12628,7 @@
         <v>2</v>
       </c>
       <c r="I284" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12664,14 +12664,14 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>б/к, сер, л/г</t>
+          <t>сер, б/к, л/г</t>
         </is>
       </c>
       <c r="H285" t="n">
         <v>2</v>
       </c>
       <c r="I285" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -12714,7 +12714,7 @@
         <v>2</v>
       </c>
       <c r="I286" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -12750,14 +12750,14 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>б/к, сер</t>
+          <t>сер, б/к</t>
         </is>
       </c>
       <c r="H287" t="n">
         <v>2</v>
       </c>
       <c r="I287" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12793,14 +12793,14 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>б/к, сер</t>
+          <t>сер, б/к</t>
         </is>
       </c>
       <c r="H288" t="n">
         <v>2</v>
       </c>
       <c r="I288" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12836,14 +12836,14 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>б/к, сер, ошип, л/г</t>
+          <t>сер, б/к, ошип, л/г</t>
         </is>
       </c>
       <c r="H289" t="n">
         <v>2</v>
       </c>
       <c r="I289" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12879,14 +12879,14 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>груз, сер, 68</t>
+          <t>68, груз, сер</t>
         </is>
       </c>
       <c r="H290" t="n">
         <v>2</v>
       </c>
       <c r="I290" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12922,14 +12922,14 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>груз, сер, 68</t>
+          <t>68, груз, сер</t>
         </is>
       </c>
       <c r="H291" t="n">
         <v>2</v>
       </c>
       <c r="I291" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12965,14 +12965,14 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>груз, сер, 58</t>
+          <t>58, груз, сер</t>
         </is>
       </c>
       <c r="H292" t="n">
         <v>2</v>
       </c>
       <c r="I292" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -13008,14 +13008,14 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>груз, сер, 58</t>
+          <t>58, груз, сер</t>
         </is>
       </c>
       <c r="H293" t="n">
         <v>2</v>
       </c>
       <c r="I293" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -13051,14 +13051,14 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>груз, сер, 54</t>
+          <t>54, груз, сер</t>
         </is>
       </c>
       <c r="H294" t="n">
         <v>2</v>
       </c>
       <c r="I294" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -13094,14 +13094,14 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>груз, сер, 48</t>
+          <t>48, груз, сер</t>
         </is>
       </c>
       <c r="H295" t="n">
         <v>2</v>
       </c>
       <c r="I295" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -13137,14 +13137,14 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>груз, сер, 48</t>
+          <t>48, груз, сер</t>
         </is>
       </c>
       <c r="H296" t="n">
         <v>2</v>
       </c>
       <c r="I296" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>б/к сер л/г</t>
+          <t>сер б/к л/г</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -13180,14 +13180,14 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H297" t="n">
         <v>2</v>
       </c>
       <c r="I297" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>б/к сер л/г</t>
+          <t>сер б/к л/г</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -13223,14 +13223,14 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>210B, C, сер, H, LS-2, Type</t>
+          <t>210B, C, H, Type, сер, LS-2</t>
         </is>
       </c>
       <c r="H298" t="n">
         <v>2</v>
       </c>
       <c r="I298" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>б/к сер л/г</t>
+          <t>сер б/к л/г</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -13266,14 +13266,14 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>груз, C, сер, H, LS-2, Type</t>
+          <t>C, H, Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H299" t="n">
         <v>2</v>
       </c>
       <c r="I299" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>б/к сер л/г</t>
+          <t>сер б/к л/г</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -13309,14 +13309,14 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>202B, C, сер, H, LS-2, Type</t>
+          <t>202B, C, H, Type, сер, LS-2</t>
         </is>
       </c>
       <c r="H300" t="n">
         <v>2</v>
       </c>
       <c r="I300" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -13352,14 +13352,14 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>202B, C, сер, H, LS-2, Type</t>
+          <t>202B, C, H, Type, сер, LS-2</t>
         </is>
       </c>
       <c r="H301" t="n">
         <v>2</v>
       </c>
       <c r="I301" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -13395,14 +13395,14 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H302" t="n">
         <v>2</v>
       </c>
       <c r="I302" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>2</v>
       </c>
       <c r="I303" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -13481,14 +13481,14 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>173G, б/к, груз, сер</t>
+          <t>173G, груз, сер, б/к</t>
         </is>
       </c>
       <c r="H304" t="n">
         <v>2</v>
       </c>
       <c r="I304" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>б/к сер л/г</t>
+          <t>сер б/к л/г</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -13531,7 +13531,7 @@
         <v>2</v>
       </c>
       <c r="I305" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -13567,14 +13567,14 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H306" t="n">
         <v>2</v>
       </c>
       <c r="I306" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>б/к сер</t>
+          <t>сер б/к</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -13617,7 +13617,7 @@
         <v>2</v>
       </c>
       <c r="I307" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>б/к сер</t>
+          <t>сер б/к</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13660,7 +13660,7 @@
         <v>2</v>
       </c>
       <c r="I308" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>б/к сер ошип л/г</t>
+          <t>сер б/к ошип л/г</t>
         </is>
       </c>
     </row>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>б/к сер легк л/г</t>
+          <t>сер легк б/к л/г</t>
         </is>
       </c>
     </row>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>груз сер 68</t>
+          <t>68 груз сер</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>груз сер 68</t>
+          <t>68 груз сер</t>
         </is>
       </c>
     </row>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>груз сер 58</t>
+          <t>58 груз сер</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>груз сер 58</t>
+          <t>58 груз сер</t>
         </is>
       </c>
     </row>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>груз сер 54</t>
+          <t>54 груз сер</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>груз сер 48</t>
+          <t>48 груз сер</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>груз сер 48</t>
+          <t>48 груз сер</t>
         </is>
       </c>
     </row>
@@ -13834,7 +13834,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
     </row>
@@ -13851,7 +13851,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>210B C сер H LS-2 Type</t>
+          <t>210B C H Type сер LS-2</t>
         </is>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>груз C сер H LS-2 Type</t>
+          <t>C H Type груз сер LS-2</t>
         </is>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>202B C сер H LS-2 Type</t>
+          <t>202B C H Type сер LS-2</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>202B C сер H LS-2 Type</t>
+          <t>202B C H Type сер LS-2</t>
         </is>
       </c>
     </row>
@@ -13919,7 +13919,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>173G б/к груз сер</t>
+          <t>173G груз сер б/к</t>
         </is>
       </c>
     </row>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,6 +1341,564 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>42, 30, груз, сер</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>210B, Type, сер, C, H</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>груз, Type, сер, LS-2</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>202B, Type, сер, C, H, LS-2</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>груз, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -448,7 +480,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 сер груз</t>
+          <t>30 42 сер груз</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>30, 42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -465,7 +523,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>30, 42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -482,7 +566,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -502,6 +612,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -516,7 +652,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -533,7 +695,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -550,7 +738,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -567,7 +781,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -584,7 +824,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B сер C Type H</t>
+          <t>210B C сер H Type</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -601,7 +867,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LS-2 сер груз Type</t>
+          <t>сер груз Type LS-2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210B, C, сер, H, Type</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -618,7 +910,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B сер C Type</t>
+          <t>202B C сер Type</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>210B, C, сер, H, Type</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -635,7 +953,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B LS-2 сер C Type H</t>
+          <t>202B C сер H Type LS-2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>сер, груз, Type, LS-2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -655,6 +999,32 @@
           <t>б/к сер груз</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>202B, C, сер, Type</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -669,7 +1039,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>202B, C, сер, H, Type, LS-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -686,7 +1082,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>202B, C, сер, H, Type, LS-2</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -706,6 +1128,32 @@
           <t>8 сер сх</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>202B, C, сер, H, Type, LS-2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -720,7 +1168,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -737,7 +1211,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -754,7 +1254,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -771,7 +1297,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -788,7 +1340,257 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45340</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30 42 сер груз</t>
+          <t>42 30 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30, 42, сер, груз</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30, 42, сер, груз</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>ошип, сер</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B C сер H Type</t>
+          <t>210B Type H C сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер груз Type LS-2</t>
+          <t>Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, C, сер, H, Type</t>
+          <t>210B, Type, H, C, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B C сер Type</t>
+          <t>202B Type C сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, C, сер, H, Type</t>
+          <t>210B, Type, H, C, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C сер H Type LS-2</t>
+          <t>202B Type H C сер LS-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>сер, груз, Type, LS-2</t>
+          <t>Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к сер груз</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, C, сер, Type</t>
+          <t>202B, Type, C, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, C, сер, H, Type, LS-2</t>
+          <t>202B, Type, H, C, сер, LS-2</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, C, сер, H, Type, LS-2</t>
+          <t>202B, Type, H, C, сер, LS-2</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>8 сх сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, C, сер, H, Type, LS-2</t>
+          <t>202B, Type, H, C, сер, LS-2</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H30" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 груз сер</t>
+          <t>42 30 сер груз</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>42, 30, сер, груз</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>42, 30, сер, груз</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,14 +710,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B Type H C сер</t>
+          <t>210B Type сер H C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Type груз сер LS-2</t>
+          <t>Type сер LS-2 груз</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, Type, H, C, сер</t>
+          <t>210B, Type, сер, H, C</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B Type C сер</t>
+          <t>202B Type сер C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, Type, H, C, сер</t>
+          <t>210B, Type, сер, H, C</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B Type H C сер LS-2</t>
+          <t>202B Type сер LS-2 H C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Type, груз, сер, LS-2</t>
+          <t>Type, сер, LS-2, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>сер б/к груз</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, Type, C, сер</t>
+          <t>202B, Type, сер, C</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, Type, H, C, сер, LS-2</t>
+          <t>202B, Type, сер, LS-2, H, C</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, Type, H, C, сер, LS-2</t>
+          <t>202B, Type, сер, LS-2, H, C</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>8 сер сх</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, Type, H, C, сер, LS-2</t>
+          <t>202B, Type, сер, LS-2, H, C</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1411,14 +1411,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1439,14 +1439,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1467,14 +1467,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1495,14 +1495,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1523,14 +1523,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1551,14 +1551,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1579,14 +1579,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 сер груз</t>
+          <t>42 30 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, 30, сер, груз</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42, 30, сер, груз</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>ошип, сер</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B Type сер H C</t>
+          <t>210B H Type C сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Type сер LS-2 груз</t>
+          <t>груз Type LS-2 сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, Type, сер, H, C</t>
+          <t>210B, H, Type, C, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B Type сер C</t>
+          <t>202B Type C сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, Type, сер, H, C</t>
+          <t>210B, H, Type, C, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B Type сер LS-2 H C</t>
+          <t>202B H Type C LS-2 сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Type, сер, LS-2, груз</t>
+          <t>груз, Type, LS-2, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер б/к груз</t>
+          <t>груз б/к сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C</t>
+          <t>202B, Type, C, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2, H, C</t>
+          <t>202B, H, Type, C, LS-2, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2, H, C</t>
+          <t>202B, H, Type, C, LS-2, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>8 сх сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, Type, сер, LS-2, H, C</t>
+          <t>202B, H, Type, C, LS-2, сер</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H30" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз Type LS-2 сер</t>
+          <t>Type LS-2 груз сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B H Type C LS-2 сер</t>
+          <t>202B H Type LS-2 C сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, Type, LS-2, сер</t>
+          <t>Type, LS-2, груз, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>груз б/к сер</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, H, Type, C, LS-2, сер</t>
+          <t>202B, H, Type, LS-2, C, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, H, Type, C, LS-2, сер</t>
+          <t>202B, H, Type, LS-2, C, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>8 сер сх</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, H, Type, C, LS-2, сер</t>
+          <t>202B, H, Type, LS-2, C, сер</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 груз сер</t>
+          <t>30 42 сер груз</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>30, 42, сер, груз</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>30, 42, сер, груз</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B H Type C сер</t>
+          <t>210B сер Type H C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Type LS-2 груз сер</t>
+          <t>сер груз Type LS-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, H, Type, C, сер</t>
+          <t>210B, сер, Type, H, C</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B Type C сер</t>
+          <t>202B сер Type C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, H, Type, C, сер</t>
+          <t>210B, сер, Type, H, C</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B H Type LS-2 C сер</t>
+          <t>202B сер Type LS-2 H C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Type, LS-2, груз, сер</t>
+          <t>сер, груз, Type, LS-2</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>сер груз б/к</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, Type, C, сер</t>
+          <t>202B, сер, Type, C</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, H, Type, LS-2, C, сер</t>
+          <t>202B, сер, Type, LS-2, H, C</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, H, Type, LS-2, C, сер</t>
+          <t>202B, сер, Type, LS-2, H, C</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, H, Type, LS-2, C, сер</t>
+          <t>202B, сер, Type, LS-2, H, C</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H30" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B C Type сер H</t>
+          <t>210B C H сер Type</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Type груз LS-2 сер</t>
+          <t>LS-2 груз сер Type</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B C Type сер</t>
+          <t>202B C сер Type</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C Type LS-2 сер H</t>
+          <t>202B C LS-2 H сер Type</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>груз б/к сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -448,7 +480,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 груз сер</t>
+          <t>30 42 сер груз</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>30, 42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -465,7 +523,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер б/к легк</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35/65-33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ФБел-283</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>30, 42, сер, груз</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -482,7 +566,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер б/к легк</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, б/к, легк</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -502,6 +612,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>сер, б/к, легк</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -516,7 +652,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -533,7 +695,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -550,7 +738,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -567,7 +781,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -584,7 +824,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B C H сер Type</t>
+          <t>210B сер C H Type</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -601,7 +867,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LS-2 груз сер Type</t>
+          <t>LS-2 сер Type груз</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210B, сер, C, H, Type</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -618,7 +910,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B C сер Type</t>
+          <t>202B сер C Type</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>210B, сер, C, H, Type</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -635,7 +953,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C LS-2 H сер Type</t>
+          <t>202B LS-2 сер C H Type</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Бел-212</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>LS-2, сер, Type, груз</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -652,7 +996,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>груз сер б/к</t>
+          <t>сер б/к груз</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Бел-200</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>202B, сер, C, Type</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -669,7 +1039,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер б/к легк</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>202B, LS-2, сер, C, H, Type</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -686,7 +1082,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер б/к легк</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>202B, LS-2, сер, C, H, Type</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -706,6 +1128,32 @@
           <t>8 сер сх</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.00R35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-210</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>202B, LS-2, сер, C, H, Type</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -720,7 +1168,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>сер, б/к, груз</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -737,7 +1211,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>сер, б/к, груз</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -754,7 +1254,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>сер, б/к, груз</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -771,7 +1297,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>сер, б/к, груз</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -788,7 +1340,257 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>сер, б/к, легк</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>сер, б/к, легк</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45348</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B сер C H Type</t>
+          <t>210B сер Type C H</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LS-2 сер Type груз</t>
+          <t>LS-2 сер груз Type</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, сер, C, H, Type</t>
+          <t>210B, сер, Type, C, H</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B сер C Type</t>
+          <t>202B сер Type C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, сер, C, H, Type</t>
+          <t>210B, сер, Type, C, H</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B LS-2 сер C H Type</t>
+          <t>202B LS-2 сер Type C H</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LS-2, сер, Type, груз</t>
+          <t>LS-2, сер, груз, Type</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер б/к груз</t>
+          <t>б/к сер груз</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, сер, C, Type</t>
+          <t>202B, сер, Type, C</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, LS-2, сер, C, H, Type</t>
+          <t>202B, LS-2, сер, Type, C, H</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, LS-2, сер, C, H, Type</t>
+          <t>202B, LS-2, сер, Type, C, H</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, LS-2, сер, C, H, Type</t>
+          <t>202B, LS-2, сер, Type, C, H</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B сер Type C H</t>
+          <t>210B H сер C Type</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, сер, Type, C, H</t>
+          <t>210B, H, сер, C, Type</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B сер Type C</t>
+          <t>202B сер C Type</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, сер, Type, C, H</t>
+          <t>210B, H, сер, C, Type</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B LS-2 сер Type C H</t>
+          <t>202B LS-2 H сер C Type</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к сер груз</t>
+          <t>сер груз б/к</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, сер, Type, C</t>
+          <t>202B, сер, C, Type</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, LS-2, сер, Type, C, H</t>
+          <t>202B, LS-2, H, сер, C, Type</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, LS-2, сер, Type, C, H</t>
+          <t>202B, LS-2, H, сер, C, Type</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, LS-2, сер, Type, C, H</t>
+          <t>202B, LS-2, H, сер, C, Type</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>сер, груз, б/к</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30 42 сер груз</t>
+          <t>42 30 сер груз</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30, 42, сер, груз</t>
+          <t>42, 30, сер, груз</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30, 42, сер, груз</t>
+          <t>42, 30, сер, груз</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>ошип, сер</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B H сер C Type</t>
+          <t>210B C Type сер H</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LS-2 сер груз Type</t>
+          <t>LS-2 Type сер груз</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, H, сер, C, Type</t>
+          <t>210B, C, Type, сер, H</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B сер C Type</t>
+          <t>202B C Type сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, H, сер, C, Type</t>
+          <t>210B, C, Type, сер, H</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B LS-2 H сер C Type</t>
+          <t>202B C LS-2 Type сер H</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LS-2, сер, груз, Type</t>
+          <t>LS-2, Type, сер, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер груз б/к</t>
+          <t>б/к сер груз</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, сер, C, Type</t>
+          <t>202B, C, Type, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, LS-2, H, сер, C, Type</t>
+          <t>202B, C, LS-2, Type, сер, H</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, LS-2, H, сер, C, Type</t>
+          <t>202B, C, LS-2, Type, сер, H</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, LS-2, H, сер, C, Type</t>
+          <t>202B, C, LS-2, Type, сер, H</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>сер, груз, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>сер, груз, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>сер, груз, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, груз, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H30" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 сер груз</t>
+          <t>30 42 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, 30, сер, груз</t>
+          <t>30, 42, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42, 30, сер, груз</t>
+          <t>30, 42, груз, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LS-2 Type сер груз</t>
+          <t>Type груз сер LS-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C LS-2 Type сер H</t>
+          <t>202B C Type сер LS-2 H</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LS-2, Type, сер, груз</t>
+          <t>Type, груз, сер, LS-2</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к сер груз</t>
+          <t>груз б/к сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, C, LS-2, Type, сер, H</t>
+          <t>202B, C, Type, сер, LS-2, H</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, C, LS-2, Type, сер, H</t>
+          <t>202B, C, Type, сер, LS-2, H</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>8 сх сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, C, LS-2, Type, сер, H</t>
+          <t>202B, C, Type, сер, LS-2, H</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, сер, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B C Type сер H</t>
+          <t>210B Type сер C H</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, C, Type, сер, H</t>
+          <t>210B, Type, сер, C, H</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B C Type сер</t>
+          <t>202B Type сер C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, C, Type, сер, H</t>
+          <t>210B, Type, сер, C, H</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C Type сер LS-2 H</t>
+          <t>202B Type сер C H LS-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>груз б/к сер</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер</t>
+          <t>202B, Type, сер, C</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер, LS-2, H</t>
+          <t>202B, Type, сер, C, H, LS-2</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер, LS-2, H</t>
+          <t>202B, Type, сер, C, H, LS-2</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>8 сер сх</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер, LS-2, H</t>
+          <t>202B, Type, сер, C, H, LS-2</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>б/к, груз, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>б/к, сер, легк</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H30" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30 42 груз сер</t>
+          <t>42 30 груз сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30, 42, груз, сер</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30, 42, груз, сер</t>
+          <t>42, 30, груз, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>210B Type сер C H</t>
+          <t>210B C H Type сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Type груз сер LS-2</t>
+          <t>груз LS-2 Type сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, Type, сер, C, H</t>
+          <t>210B, C, H, Type, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B Type сер C</t>
+          <t>202B C Type сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, Type, сер, C, H</t>
+          <t>210B, C, H, Type, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B Type сер C H LS-2</t>
+          <t>202B C LS-2 H Type сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Type, груз, сер, LS-2</t>
+          <t>груз, LS-2, Type, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз б/к сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C</t>
+          <t>202B, C, Type, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C, H, LS-2</t>
+          <t>202B, C, LS-2, H, Type, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C, H, LS-2</t>
+          <t>202B, C, LS-2, H, Type, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>8 сх сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, Type, сер, C, H, LS-2</t>
+          <t>202B, C, LS-2, H, Type, сер</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>б/к, сер, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H30" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,39 +470,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35/65-33</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42 30 груз сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35/65-33</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEL-262</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,29 +523,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35/65-33</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ФБел-283</t>
+          <t>BEL-317</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42, 30, груз, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BEL-317</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -576,19 +576,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BEL-262</t>
+          <t>BEL-317S</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -599,39 +599,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BEL-317S</t>
+          <t>BEL-1001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>235/75R15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>235/75R15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BEL-317</t>
+          <t>BEL-1001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -642,12 +642,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEL-1001</t>
+          <t>BEL-1002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>235/75R15</t>
+          <t>155/65R13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,24 +657,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>155/65R13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BEL-317S</t>
+          <t>BEL-1002</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BEL-1002</t>
+          <t>BEL-1004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>155/65R13</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>235/75R15</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BEL-1001</t>
+          <t>BEL-1004</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -728,29 +728,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>BEL-1004</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>легк сер</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>155/65R13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>BEL-1002</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>легк, сер</t>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -771,29 +771,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>210B Type H сер</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>BEL-1005</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>225/50R17</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>легк сер</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>205/55R16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>BEL-1004</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>легк, сер</t>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -814,39 +814,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>груз сер б/к</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Бел-202</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>24.00R35</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>210B C H Type сер</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>225/50R17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>BEL-1005</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>210B, Type, H, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -857,39 +857,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>Бел-103</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>груз LS-2 Type сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>210B, C, H, Type, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -900,39 +900,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бел-200</t>
+          <t>Бел-100</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>175/70R13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>202B C Type сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>210B, C, H, Type, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -943,39 +943,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Ф-35-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>11.2-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>202B C LS-2 H Type сер</t>
+          <t>8 сх сер</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>14.00R20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Бел-212</t>
+          <t>BEL-248</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, LS-2, Type, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,39 +986,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>BEL-248</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>груз б/к сер</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Бел-200</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202B, C, Type, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1029,39 +1029,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Бел-103</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>б/к легк сер</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Бел-210</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202B, C, LS-2, H, Type, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1072,39 +1072,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Бел-100</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>б/к легк сер</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.00R35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Бел-210</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202B, C, LS-2, H, Type, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1115,39 +1115,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ф-35-1</t>
+          <t>Бел-1000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11.2-20</t>
+          <t>215/65R16C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.00R35</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Бел-210</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202B, C, LS-2, H, Type, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1158,39 +1158,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Бел-119</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>легк сер</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>14.00R20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>BEL-248</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1201,12 +1201,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Бел-777</t>
+          <t>Бел-1005</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>210/80R16</t>
+          <t>225/50R17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1216,24 +1216,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-119</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1244,39 +1244,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Бел-1000</t>
+          <t>BEL-734</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>215/65R16C</t>
+          <t>205/70R14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-1149</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1287,39 +1287,39 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Бел-1001</t>
+          <t>BEL-261</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>легк сер б/к</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>210/80R16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>Бел-777</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1330,123 +1330,168 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>легк сер б/к</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>легк сер б/к</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Бел-1005</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>225/50R17</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>легк сер</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Бел-103</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>175/70R13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Бел-100</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>б/к, легк, сер</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>195/65R15</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Бел-119</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>легк, сер</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
       <c r="E25" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>205/70R14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Бел-119</t>
+          <t>BEL-734</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1462,19 +1507,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Бел-119</t>
+          <t>BEL-261</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1485,24 +1530,24 @@
     <row r="27">
       <c r="E27" t="inlineStr">
         <is>
-          <t>210/80R16</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Бел-777</t>
+          <t>BEL-337</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1513,24 +1558,24 @@
     <row r="28">
       <c r="E28" t="inlineStr">
         <is>
-          <t>215/65R16C</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Бел-1000</t>
+          <t>BEL-337S</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1541,24 +1586,24 @@
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>195/65R15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Бел-1001</t>
+          <t>BEL-705</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>легк, сер, б/к</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1569,26 +1614,138 @@
     <row r="30">
       <c r="E30" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>205/55R16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Бел-1005</t>
+          <t>BEL-262</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>легк, сер, б/к</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>легк, сер</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>45371</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,14 +710,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B Type H сер</t>
+          <t>210B сер Type H</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз сер б/к</t>
+          <t>сер б/к груз</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, Type, H, сер</t>
+          <t>210B, сер, Type, H</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>8 сер сх</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>сер, б/к, груз</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1398,14 +1398,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1540,14 +1540,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1596,14 +1596,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>легк, сер, б/к</t>
+          <t>сер, легк, б/к</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45371</v>
+        <v>45417</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B сер Type H</t>
+          <t>сер Type H 210B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>сер б/к груз</t>
+          <t>сер груз б/к</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, сер, Type, H</t>
+          <t>210B, Type, H, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>сер сх 8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>сер, б/к, груз</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1540,14 +1540,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1596,14 +1596,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>сер, легк, б/к</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1743,9 +1743,2781 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45417</v>
+        <v>45434</v>
       </c>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>210B, Type, H, сер</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>210B, Type, H, сер</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>210B, Type, H, сер</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -448,7 +480,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -465,7 +523,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -485,6 +569,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -502,6 +612,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -519,6 +655,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -536,6 +698,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -553,6 +741,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -567,7 +781,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B Type сер H</t>
+          <t>210B H Type сер</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -584,7 +824,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>сер груз б/к</t>
+          <t>груз б/к сер</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -601,7 +867,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -618,7 +910,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -638,6 +956,32 @@
           <t>8 сер сх</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -655,6 +999,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -672,6 +1042,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -689,6 +1085,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -706,6 +1128,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -723,6 +1171,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -740,6 +1214,32 @@
           <t>легк сер</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -754,7 +1254,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -771,7 +1297,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -788,7 +1340,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -808,6 +1386,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,7 +1426,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>легк сер б/к</t>
+          <t>б/к легк сер</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -840,6 +1470,1208 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>легк сер</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>45466</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B H Type сер</t>
+          <t>210B сер Type H</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз б/к сер</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>б/к сер легк</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B сер Type H</t>
+          <t>210B H Type сер</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз б/к сер</t>
+          <t>б/к груз сер</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>8 сх сер</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>б/к сер легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -451,6 +483,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +526,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -482,7 +566,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -499,7 +609,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -516,7 +652,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -533,7 +695,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -550,7 +738,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -567,7 +781,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B H Type сер</t>
+          <t>210B Type H сер</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -587,6 +827,32 @@
           <t>б/к груз сер</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210B, Type, H, сер</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -604,6 +870,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -621,6 +913,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -638,6 +956,32 @@
           <t>8 сх сер</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -652,7 +996,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>б/к, груз, сер</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -669,7 +1039,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -686,7 +1082,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -703,7 +1125,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -720,7 +1168,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -737,7 +1211,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -757,6 +1257,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +1300,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -791,6 +1343,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -805,7 +1383,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>
@@ -825,6 +1429,32 @@
           <t>б/к легк сер</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -839,7 +1469,285 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B Type H сер</t>
+          <t>210B H сер Type</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, Type, H, сер</t>
+          <t>210B, H, сер, Type</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>б/к, груз, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>ошип сер</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>б/к, легк, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H33" t="n">

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>ошип, сер</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,14 +710,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B H сер Type</t>
+          <t>210B H Type сер</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз сер б/к</t>
+          <t>груз б/к сер</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, H, сер, Type</t>
+          <t>210B, H, Type, сер</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>груз, б/к, сер</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1398,14 +1398,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1540,14 +1540,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1568,14 +1568,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>сер, ошип</t>
+          <t>ошип, сер</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1596,14 +1596,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>легк, б/к, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1736,16 +1736,940 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>сер, легк</t>
+          <t>легк, сер</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45473</v>
+        <v>45481</v>
       </c>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ошип, сер</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>210B, H, Type, сер</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>груз, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ошип, сер</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>легк, б/к, сер</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>легк, сер</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -581,14 +581,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -710,14 +710,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B H Type сер</t>
+          <t>210B сер H Type</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз б/к сер</t>
+          <t>груз сер б/к</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>210B, H, Type, сер</t>
+          <t>210B, сер, H, Type</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>8 сер сх</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1398,14 +1398,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>сер б/к легк</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1540,14 +1540,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1568,14 +1568,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1596,14 +1596,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1764,14 +1764,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1792,14 +1792,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1848,14 +1848,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1876,14 +1876,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1904,14 +1904,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1932,14 +1932,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1960,14 +1960,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>210B, H, Type, сер</t>
+          <t>210B, сер, H, Type</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2016,14 +2016,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2044,14 +2044,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2072,14 +2072,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2100,14 +2100,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>груз, б/к, сер</t>
+          <t>груз, сер, б/к</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2128,14 +2128,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2156,14 +2156,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2184,14 +2184,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2212,14 +2212,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>2</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2240,14 +2240,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2268,14 +2268,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2296,14 +2296,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2324,14 +2324,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2380,14 +2380,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>2</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2408,14 +2408,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>2</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2464,14 +2464,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2492,14 +2492,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ошип, сер</t>
+          <t>сер, ошип</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2520,14 +2520,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2576,14 +2576,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2604,14 +2604,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2632,14 +2632,14 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>легк, б/к, сер</t>
+          <t>сер, б/к, легк</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2660,14 +2660,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>легк, сер</t>
+          <t>сер, легк</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>2</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,14 +538,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз сер б/к</t>
+          <t>б/к сер груз</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -925,14 +925,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1097,14 +1097,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>сер б/к легк</t>
+          <t>б/к легк сер</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1512,14 +1512,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1540,14 +1540,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1596,14 +1596,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1764,14 +1764,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1792,14 +1792,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2016,14 +2016,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2044,14 +2044,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2072,14 +2072,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2100,14 +2100,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>груз, сер, б/к</t>
+          <t>б/к, сер, груз</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2128,14 +2128,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2156,14 +2156,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2408,14 +2408,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>2</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2464,14 +2464,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2520,14 +2520,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2576,14 +2576,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2604,14 +2604,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2632,14 +2632,14 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>сер, б/к, легк</t>
+          <t>б/к, легк, сер</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2667,9 +2667,2781 @@
         <v>2</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>45484</v>
+        <v>45486</v>
       </c>
       <c r="J67" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>210B, сер, H, Type</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>210B, сер, H, Type</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>210B, сер, H, Type</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>б/к, легк, сер</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B сер Type H</t>
+          <t>сер Type H 210B</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>б/к груз сер</t>
+          <t>сер груз б/к</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>сер сх 8</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ошип сер</t>
+          <t>сер ошип</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>б/к легк сер</t>
+          <t>сер легк б/к</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер легк</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>сер Type H 210B</t>
+          <t>210B сер Type H</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>сер груз б/к</t>
+          <t>груз б/к сер</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>сер сх 8</t>
+          <t>8 сх сер</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>легк б/к сер</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>легк сер</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,408 +438,544 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BEL-262</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>30 42 сер груз</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEL-317</t>
+          <t>Бел-87</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>20.0/60-22.5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>12 сер груз</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BEL-317S</t>
+          <t>ФБел-199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>26.5-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>32 28 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BEL-1001</t>
+          <t>Бел-6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>235/75R15</t>
+          <t>26.5-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>32 28 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEL-1002</t>
+          <t>Бел-10М</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>155/65R13</t>
+          <t>26.5-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>32 28 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BEL-1004</t>
+          <t>BEL-315</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>26.5R25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер груз LS-2 C H Type</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEL-1005</t>
+          <t>BEL-324</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>26.5R25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>сер груз LS-2 C H Type</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-364</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>26.5R25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B сер Type H</t>
+          <t>193B сер груз LS-2 C H Type</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>ФБел-150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>24.00-35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>груз б/к сер</t>
+          <t>42 сер груз</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бел-103</t>
+          <t>Бел-172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>24.00-35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>205B сер груз</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бел-100</t>
+          <t>ФБел-247-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>23.5-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>24 20 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ф-35-1</t>
+          <t>Бел-155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11.2-20</t>
+          <t>23.5-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сх сер</t>
+          <t>28 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Бел-119</t>
+          <t>Бел-239</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>23.5-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>20 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бел-1149</t>
+          <t>Бел-51А</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>21.00-35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>36 сер груз</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бел-777</t>
+          <t>Бел-51М</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>210/80R16</t>
+          <t>21.00-35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>36 сер груз</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Бел-1000</t>
+          <t>ВФ-166АМ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>215/65R16C</t>
+          <t>21.00-33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>32 сер груз</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Бел-1001</t>
+          <t>ИЯВ-79</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>21.3-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>16 12 сер груз</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Бел-1005</t>
+          <t>Ф-92А</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>20.5-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>16 20 28 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BEL-734</t>
+          <t>Бел-236</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>205/70R14</t>
+          <t>20.5-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>170B сер груз</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BEL-261</t>
+          <t>BEL-314</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>20.5R25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>177 186A2 сер груз LS-2 C H Type</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>ВФ-76БМ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>18.00-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>36 32 40 сер б/к груз</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BEL-337S</t>
+          <t>Бел-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>18.00-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>28 сер б/к</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BEL-705</t>
+          <t>Бел-197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>18.00-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>легк б/к сер</t>
+          <t>32 сер груз</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Бел-188</t>
+          <t>BEL-183</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>18.00R25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>легк сер</t>
+          <t>185B сер б/к груз LS-2 C H Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BEL-332</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>18.00-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>215A2 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BEL-425</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14.00R25</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>170B сер L-2 LS-2 C H</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Бел-71</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14.5/75-20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>164A2 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ф-170</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17.5-25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20 22 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ф-120</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17.5-25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16 20 12 сер б/к груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BEL-301</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17.5R25</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>182A2 сер б/к груз LS-2 C H</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BEL-373</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17.5R25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>182A2 сер б/к груз LS-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Бел-230М</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>355/65-15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>сер</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tyre Size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Param</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sales value</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date_of_sales</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Contragent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -451,6 +483,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +526,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -485,6 +569,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -502,6 +612,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -519,6 +655,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -536,6 +698,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -553,6 +741,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,6 +784,32 @@
           <t>210B H сер Type</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -587,6 +827,32 @@
           <t>б/к сер груз</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210B, H, сер, Type</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -604,6 +870,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -621,6 +913,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -638,6 +956,32 @@
           <t>8 сх сер</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -655,6 +999,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -672,6 +1042,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -689,6 +1085,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -706,6 +1128,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -723,6 +1171,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -740,6 +1214,32 @@
           <t>сер легк</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -757,6 +1257,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +1300,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -791,6 +1343,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -808,6 +1386,32 @@
           <t>сер ошип</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -825,6 +1429,32 @@
           <t>б/к сер легк</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -840,6 +1470,1208 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>сер легк</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>235/75R15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BEL-1001</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>155/65R13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BEL-1002</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEL-1004</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BEL-1005</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.00R35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Бел-202</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>210B, H, сер, Type</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14.00R20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BEL-248</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>б/к, сер, груз</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Бел-1149</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Бел-777</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>215/65R16C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Бел-1000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Бел-1001</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Бел-1005</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>сер, ошип</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>б/к, сер, легк</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Бел-188</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>сер, легк</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>45548</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>нет данных</t>
         </is>
       </c>
     </row>

--- a/src/Tyres.xlsx
+++ b/src/Tyres.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,408 +438,5576 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BEL-262</t>
+          <t>ФБел-283</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>35/65-33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>30 42 сер груз</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BEL-317</t>
+          <t>Бел-87</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>20.0/60-22.5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>12 16 163A6 сер сх груз б/к</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BEL-317S</t>
+          <t>ФБел-199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>26.5-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>32 28 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BEL-1001</t>
+          <t>Бел-6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>235/75R15</t>
+          <t>26.5-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>32 28 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEL-1002</t>
+          <t>Бел-10М</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>155/65R13</t>
+          <t>26.5-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>32 28 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BEL-1004</t>
+          <t>BEL-315</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>26.5R25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>H C сер LS-2 груз Type</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BEL-1005</t>
+          <t>BEL-324</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>26.5R25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>H C сер LS-2 груз Type</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бел-202</t>
+          <t>BEL-364</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24.00R35</t>
+          <t>26.5R25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210B Type сер H</t>
+          <t>193B H C сер LS-2 груз Type</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BEL-248</t>
+          <t>ФБел-150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.00R20</t>
+          <t>24.00-35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>сер груз б/к</t>
+          <t>42 сер груз</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бел-103</t>
+          <t>Бел-172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>24.00-35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>205B сер груз</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бел-100</t>
+          <t>ФБел-247-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>175/70R13</t>
+          <t>23.5-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>24 20 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ф-35-1</t>
+          <t>Бел-155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11.2-20</t>
+          <t>23.5-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8 сер сх</t>
+          <t>28 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Бел-119</t>
+          <t>Бел-239</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>23.5-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>20 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бел-1149</t>
+          <t>Бел-51А</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>21.00-35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>36 сер груз</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бел-777</t>
+          <t>Бел-51М</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>210/80R16</t>
+          <t>21.00-35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>36 сер груз</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Бел-1000</t>
+          <t>ВФ-166АМ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>215/65R16C</t>
+          <t>21.00-33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>32 сер груз</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Бел-1001</t>
+          <t>ИЯВ-79</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>205/55R16</t>
+          <t>21.3-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>12 16 10 сер сх груз</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Бел-1005</t>
+          <t>Ф-92А</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>225/50R17</t>
+          <t>20.5-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>сер легк</t>
+          <t>16 20 28 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BEL-734</t>
+          <t>Бел-236</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>205/70R14</t>
+          <t>20.5-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>170B сер груз</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BEL-261</t>
+          <t>BEL-314</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>20.5R25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>177 186A2 H C сер LS-2 груз Type</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BEL-337</t>
+          <t>ВФ-76БМ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>18.00-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>36 40 32 сер груз б/к</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BEL-337S</t>
+          <t>Бел-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>18.00-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>сер ошип</t>
+          <t>28 сер б/к</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BEL-705</t>
+          <t>Бел-197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>195/65R15</t>
+          <t>18.00-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>сер легк б/к</t>
+          <t>32 сер груз</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>BEL-183</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18.00R25</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>185B H C сер LS-2 груз б/к Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BEL-332</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>18.00-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>215A2 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BEL-425</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14.00R25</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>170B L-2 H C сер LS-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Бел-71</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14.5/75-20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>164A2 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ф-170</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17.5-25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22 20 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ф-120</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17.5-25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12 16 20 сер груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BEL-301</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17.5R25</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>182A2 H C сер LS-2 груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BEL-373</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17.5R25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>182A2 H C сер LS-2 груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Я-307</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14.00-20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16 20 18 10 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ф-10А</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14.00-20</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Бел-67А</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14.00-20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>22 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Бел-64</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14.00-20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14 22 10 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BEL-20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14.00-20</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>188A2 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Бел-26.42.38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>29.5/75R25</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>26 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Бел-32.48.75</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>29.5/75R25</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>26 сер б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ВИ-3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1300x530-533</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Бел-66А</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>525/70R21</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16 172D сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ВИ-203</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1500x600-635</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>14 176E сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BEL-304</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>29.5R25</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>H C сер LS-2 груз Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BEL-325</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>29.5R25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>200B H C сер LS-2 груз Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BEL-365</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>29.5R25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>200B H C сер LS-2 груз Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BEL-323</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>23.5R25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>185B H C сер LS-2 груз б/к Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BEL-375</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>23.5R25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>185B H C сер LS-2 груз Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BEL-305</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>29.5R29</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>H C сер LS-2 груз Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BEL-379</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>29.5R29</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>H C сер LS-2 груз Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Бел-83М</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>28LR26</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>165A8 168B сер сх груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Бел-1260</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>425/85R21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ФД-12</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>28.1R26</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>158A8 170A6 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ф-179</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>30.5L-32</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>12 170A6 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ф-81</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>30.5R32</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12 172A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ФБел-179М</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>30.5L-32</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>12 18 169A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ф-118А</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>22.0/70-20</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Бел-91</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>24.0/50-22.5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12 16 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BEL-33</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>600/50-22.5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>156A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BEL-34</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>560/60-22.5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>167A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BEL-41</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>600/55-26.5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>166A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BEL-42</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>600/55-26.5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>166A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Бел-126М</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>580/70R42</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>158D сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BEL-35</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>400/55-22.5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>147A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BEL-36</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>500/60-22.5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>155A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BEL-37</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>500/60-22.5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>155A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Бел-15</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20.8R38</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>153A8 161A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BEL-49</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>480/80R42(18.4R42</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>151A8 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ф-111</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>18.4R38</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>146A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ф-44</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>18.4R34</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>141A6 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ф-11</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>18.4R34</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>144A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Бел-27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>18.4R30</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>12 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Бел-129</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>480/70R30</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>141A8 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BEL-38</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>560/45-22.5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>154A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Бел-136</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>480/65R24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>133A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ф-148</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>18.4-24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>28 10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Бел-93</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>620/75R26</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>148A8 166A8 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Бел-90</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>420/70R24</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>130A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Бел-89</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>360/70R24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>122A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BEL-45</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>520/50-17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>159A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ф-52</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>16.9R38</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Бел-111</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>520/70R38</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>150A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BEL-43</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>710/45-26.5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>163A8 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ф-39</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>16.9R30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ф-245-1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>16.9R30</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Бел-186</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>11.2R24</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>114A8 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Бел-206</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.25-15 </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BEL-251</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>520/70R34</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>148A8 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BEL-39</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>620/50B22.5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>160D сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BEL-40</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>500/45-22.5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>146A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>КФ-97</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16.5/70-18</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14 10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>КФ-97М</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>16.5/70-18</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>153A6 149A6 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Бел-79</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16.5-18</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>42 L-2 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ф-76-1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>16.0-20</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ф-64GL-1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>16.0-20</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>12 14 28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Бел-139</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>16x6.50-8</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BEL-57</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>600/70R30</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>159D сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ф-2А</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>15.5R38</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BEL-55</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>13.6R38</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Бел-163</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>14.9R30</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>129A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Бел-17</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>13.6-20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ФБел-340</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>13.0/75-16</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>14 28 10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Бел-104</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>13.0/75-16</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>28 10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ФБел-160М</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>12,4L-16</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ф-35-1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>11.2-20</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>28 124A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Бел-92</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10.0/75-15.3</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>28 10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Бел ПТ-5М</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10.00-16</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ПТ-5М</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10.00-16</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Бел ПТ-5М</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.00-16 </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>10 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Бел-226</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.00-16 </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>104A6 вен.161 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>В-103</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.50-20 </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ФБел-253М</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.50L-16 </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>42 L-2 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ф-140М</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>6L-12</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>L-2 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Я-275А</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.50-16 </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>вен.161 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ФБел-256</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.50-16 </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>42 28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ФБел-256М</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.50-16 </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>12 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ф-122</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.50-16 </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>42 28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>В-19А</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.00-10 </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>10 вен.161 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Бел-68</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>14.9R24</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>126A8 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BEL-68</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>14.9R24</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>126A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Бел-141</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>800/65R32</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>167A8 сер б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BEL-141</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>800/65R32</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>167A8 178A8 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BEL-47</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>900/60R32</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>188A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BEL-48</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>050/50R32</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>180A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Бел-165</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>600/65R34</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>151D сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BEL-165</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>600/65R34</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>151D сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BEL-176</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>600/65R28</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>162A8 154A8 147A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BEL-244</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>650/65R42</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>168A8 сер б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Бел-245</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>700/50-22.5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>174A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Бел-194</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>700/50-26.0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>24 16 20 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Бел-179</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>710/70R38</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>166D сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Бел-175</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>710/70R42</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>173D сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Бел-225</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.50-20 </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>101A6 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Бел-144</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>540/65R30</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>150A8 сер сх б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Бел-173</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>12,5/80-15,3</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Бел-104</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>12,0-16</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>28 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Ф-65-1</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>18x7-8</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>10 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Ф-64 GL-1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>16.0-20</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>14 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Бел-1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.15-15 </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>14 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BEL-53</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12-16.5</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>145A2 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BEL-52</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10-16.5</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>135A2 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Ф-42-1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.00-12 </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>12 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Бел-135</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.50-10 </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>14 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>В-98-1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.00-13 </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>12 10 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>В-97-1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.25-10 </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>10 сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Бел-11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>215/90-15C</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>вен.161 сер легк</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>БелОШ2</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>24.0/50-22.5</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BEL-158M</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>камневыт сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BEL-278</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BEL-268</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BEL-398</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BEL-326</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BEL-498</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>315/80R22.5</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>156L сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ИД-304М</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>16 18 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>БИ-368М</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>18 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Бел-116</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>18 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BEL-306</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>12.00R20</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>И-111АМ</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>11.00R20</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Бел-124</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>11.00R20</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Бел-310</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>11.00R20</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BEL-311</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>11.00R20</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Бел-114</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>10.00R20</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>16 18 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Бел-310</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10.00R20</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>16 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BEL-312</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>10.00R20</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BEL-368</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13R22.5</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>БИ-366</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.00R20 </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>14 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>И-Н142Б</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.00R20 </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>12 14 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>К-84МБ</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.25R20 </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>12 10 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Бел-146</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>385/65R22.5</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BEL-298</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11R22.5</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BEL-296</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11R22.5</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BEL-238</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>12.00R24</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BEL-308</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>12.00R24</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Бел-108М</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>275/70R22.5</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BEL-318</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>275/70R22.5</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Бел-168</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>245/70R19.5</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Бел-178</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>295/80R22.5</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>16 сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BEL-246</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>295/80R22.5</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>камневыт сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BEL-266</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>295/80R22.5</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>152K сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BEL-418</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>295/80R22.5</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BEL-328</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>295/80R22.5</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BEL-195</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>265/70R19.5</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BEL-198</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>385/55R22.5</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Бел-159</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>235/75R17.5</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BEL-196</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>235/75R17.5</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BEL-208</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>235/75R17.5</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BEL-138М</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>315/70R22.5</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BEL-148М</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>315/70R22.5</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BEL-488</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>315/70R22.5</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Бел-169</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>215/75R17.5</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BEL-258</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12R22.5</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BEL-358</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12R22.5</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>сер груз б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BEL-376</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>315/60R22.5</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BEL-356</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>315/60R22.5</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>сер груз</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ФБел-311</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.00R20 </t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>вен.161 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Бел-161</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>265/70R16</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>102A8 сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Бел-219</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>210/75R13</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Бел-166</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>210/80R16</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Бел-31</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.00R20 </t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>сер сх</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Бел-121</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>205/70R15</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BEL-715</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>205/70R15</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Бел-59</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BEL-734</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>205/70R14</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Бел-119</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BEL-261</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BEL-337</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BEL-337S</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BEL-705</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>195/65R15</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Бел-107М</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>185/65R14</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Бел-157</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>185/65R14</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BEL-254</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>185/65R14</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BEL-147</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>185/65R14</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BEL-147S</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>185/65R14</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BEL-704</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>185/65R14</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BEL-297</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>205/65R15</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BEL-279</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>205/65R15</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BEL-725</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>205/65R15</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Бел-103</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Бел-100</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
           <t>Бел-188</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>175/70R13</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>сер легк</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Бел-188М</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>сер б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BEL-253</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BEL-347</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Бел-127М</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>175/70R13</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BEL-264</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>175/65R14</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BEL-357</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>175/65R14</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BEL-227S</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>175/65R14</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Бел-177</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>185/65R15</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BEL-287</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>185/65R15</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BEL-280</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>185/65R15</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BEL-367</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>185/60R15</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BEL-327</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>185/60R15</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BEL-327S</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>185/60R15</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BEL-286</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>185/60R15</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BEL-294</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>195/55R16</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BEL-457</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>195/55R16</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BEL-256</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>185/60R14</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BEL-267</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>185/60R14</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BEL-714</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>185/60R14</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Бел-97</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Бел-117</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Бел-117М</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BEL-274</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BEL-397</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BEL-397S</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BEL-724</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>185/70R14</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>BEL-262</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>BEL-317</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>BEL-317S</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>205/55R16</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>BEL-277</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>BEL-282</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>205/60R16</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>BEL-284</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>205/55R15</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>BEL-447</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>205/55R15</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>BEL-341</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>205/75R15</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>BEL-345</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>205/70R16</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>BEL-329</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>215/55R16</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BEL-716</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>215/55R16</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>BEL-679</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>215/55R16</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>BEL-217</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>215/65R16</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>BEL-330</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>215/65R16</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>BEL-706</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>215/65R16</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Бел-257</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>215/60R16</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>BEL-283</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>215/60R16</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>BEL-377</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>215/60R16</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>BEL-377S</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>215/60R16</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>BEL-273</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>235/60R16</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>BEL-270</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>205/65R16</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>BEL-467</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>205/65R16</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>BEL-529</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>235/55R17</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>BEL-627</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>235/55R17</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>BEL-579</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>235/55R18</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>BEL-412</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>215/55R18</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>BEL-429</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>245/45R18</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>BEL-307</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>195/60R15</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>BEL-307S</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>195/60R15</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>сер ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>BEL-281</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>195/60R15</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>BEL-402</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>215/60R17</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>BEL-464</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>215/60R17</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>BEL-409</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>215/55R17</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>BEL-344</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>215/70R16</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>BEL-539</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>BEL-403</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>225/60R18</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BEL-494</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>225/60R18</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BEL-331</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>225/55R16</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>BEL-334</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>225/60R16</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>BEL-487</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>225/60R16</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>BEL-354</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>225/60R17</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>BEL-441</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>225/55R18</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>сер легк</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>BEL-275</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>225/75R16</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>BEL-285</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>225/45R17</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>BEL-295</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>225/65R17</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>BEL-517</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>225/65R17</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>BEL-509</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>225/65R17</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>BEL-411</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>225/65R17</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>BEL-719</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>225/65R17</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>BEL-491</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>255/55R18</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>BEL-451</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>235/60R18</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>сер легк б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Бел-171</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>195/70R15C</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>сер б/к л/г</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>BEL-333</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>195/70R15C</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>сер б/к л/г</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>BEL-303</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>195/75R16C</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>сер б/к л/г</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Бел-77</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>225/70R15C</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>сер б/к л/г</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>BEL-353</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>225/70R15C</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>BEL-313</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>215/75R16C</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Бел-143</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>205/70R15C</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>BEL-300</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>235/65R16C</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Бел-78</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>195R14C</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>сер б/к л/г</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>BEL-343</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>195R14C</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>сер</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Бел-109</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>185/75R16C</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>сер б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>BEL-293</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>185/75R16C</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>сер б/к</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BEL-293S</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>185/75R16C</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>сер б/к л/г ошип</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <